--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54822D-A434-4823-9519-84BE7CDC8451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B052B-7ED0-455F-851C-28D2EEF714FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -141,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="155">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -464,9 +466,6 @@
     <t>Create Act 2 level 3</t>
   </si>
   <si>
-    <t>Create Act 2 level 4</t>
-  </si>
-  <si>
     <t>Create Act 3 level 1</t>
   </si>
   <si>
@@ -476,15 +475,9 @@
     <t>Create Act 3 level 3</t>
   </si>
   <si>
-    <t>Create Act 3 level 4</t>
-  </si>
-  <si>
     <t>Levels are to demonstrate more complexity, also requiring final capabilities</t>
   </si>
   <si>
-    <t>Filter Act 1 into only 4 best levels</t>
-  </si>
-  <si>
     <t>Do as said</t>
   </si>
   <si>
@@ -531,6 +524,90 @@
   </si>
   <si>
     <t>Lauren has a vision</t>
+  </si>
+  <si>
+    <t>Filter Act 1 into only 3 best levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulk out the levels in each act </t>
+  </si>
+  <si>
+    <t>Use floating coloured spirit masks on goals to make them read better</t>
+  </si>
+  <si>
+    <t>Lever on mushroom level moves but does not actually execute its function</t>
+  </si>
+  <si>
+    <t>Straight forward</t>
+  </si>
+  <si>
+    <t>Texture everything in act 2. Colab with Angus on socials.</t>
+  </si>
+  <si>
+    <t>Particle effects, start implementing from game, think about using the magic masks. Make the eyes glow with a slight trail.</t>
+  </si>
+  <si>
+    <t>Glowing eyes with slight trail</t>
+  </si>
+  <si>
+    <t>Shader for puppets when they go behind obstacles</t>
+  </si>
+  <si>
+    <t>Make them the same colour as the player, consider using plugin which makes it work</t>
+  </si>
+  <si>
+    <t>No jumping up, especially on player jumps</t>
+  </si>
+  <si>
+    <t>Restrict the camera pan</t>
+  </si>
+  <si>
+    <t>Waiting for sound files, if not replied in 3 days, will start designing mp3 for level track.</t>
+  </si>
+  <si>
+    <t>Level selection screen, broken into 3 acts and 3 level boxes</t>
+  </si>
+  <si>
+    <t>Redo the game soundtrack and music effects</t>
+  </si>
+  <si>
+    <t>Scrap the old one or just keep the percussion and rebuild from there</t>
+  </si>
+  <si>
+    <t>Make the gridded  movement more tolerant</t>
+  </si>
+  <si>
+    <t>Junctions are a bit janky, have to ensure player is able to turn easily enough</t>
+  </si>
+  <si>
+    <t>Implement gridded movement system into the main branch</t>
+  </si>
+  <si>
+    <t>Use Tim's grid engine, must breif team on how to effectively use it when constructing levels</t>
+  </si>
+  <si>
+    <t>Restructure old levels using the grid based system</t>
+  </si>
+  <si>
+    <t>Chance here to also improve narrative and progressive teaching of mechanics, consider moving tangling earlier in the piece.</t>
+  </si>
+  <si>
+    <t>Import new stage model</t>
+  </si>
+  <si>
+    <t>Replace the old model, optimise the grid to get a blance of enough lines to move on</t>
+  </si>
+  <si>
+    <t>Add more props and general items as well as backdrop to enhance the stag effect</t>
+  </si>
+  <si>
+    <t>Make the camera start very zoomed in the first level</t>
+  </si>
+  <si>
+    <t>Better displays the characters and gets the player into the narrative, also can be used to teach about the strings and actually make sense cause they'll be able to read the puppets</t>
+  </si>
+  <si>
+    <t>Particle effects needed here as well as the actual model for each mask but made transparent</t>
   </si>
 </sst>
 </file>
@@ -693,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -751,12 +828,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -773,11 +844,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -869,316 +949,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1507,24 +1277,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -1567,7 +1337,7 @@
       <c r="N1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="28" t="s">
         <v>50</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1580,25 +1350,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>96</v>
@@ -1607,147 +1377,111 @@
         <v>96</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="D3" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D4" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>105</v>
@@ -1769,49 +1503,49 @@
         <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4">
         <v>4</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>96</v>
@@ -1823,49 +1557,49 @@
         <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>96</v>
@@ -1877,42 +1611,42 @@
         <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
@@ -1931,42 +1665,42 @@
         <v>96</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -1976,7 +1710,7 @@
         <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>96</v>
@@ -1985,42 +1719,42 @@
         <v>96</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
@@ -2033,55 +1767,55 @@
         <v>95</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
+      <c r="B11" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>95</v>
@@ -2093,103 +1827,83 @@
         <v>95</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="1">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>91</v>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>95</v>
@@ -2201,47 +1915,49 @@
         <v>95</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
+      <c r="B14" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>95</v>
@@ -2252,427 +1968,411 @@
       <c r="I14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="25" t="s">
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D20" s="1">
         <v>0.5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E20" s="1">
         <v>0.5</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G20" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="J20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="29" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G22" s="1" t="s">
         <v>95</v>
       </c>
@@ -2683,102 +2383,100 @@
         <v>95</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>21</v>
+      <c r="B23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2791,101 +2489,103 @@
         <v>95</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>28</v>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>95</v>
@@ -2897,47 +2597,47 @@
         <v>95</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>95</v>
@@ -2949,103 +2649,103 @@
         <v>95</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>95</v>
@@ -3057,49 +2757,49 @@
         <v>95</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>95</v>
@@ -3111,160 +2811,654 @@
         <v>95</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="1">
         <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1">
         <v>6</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>102</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F64" t="s">
         <v>7</v>
       </c>
-      <c r="G55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>91</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F65" t="s">
         <v>21</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F60" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F61" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F62" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R63" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A31">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <autoFilter ref="A1:R72" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A40">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:R31">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="G69:R1048576 H64:R68 G65:G68 G1:R63">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"Done (Needs Testing)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+      <formula>"Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3273,19 +3467,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:R1048576">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="G5:R40">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3294,29 +3488,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B16)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"Done (Needs Testing)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"Started"</formula>
+  <conditionalFormatting sqref="G2:R4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F31 F11:F28" xr:uid="{1BB046FB-46C3-40BC-B6E1-E30D1F0B9ED1}">
-      <formula1>$F$55:$F$63</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F40 F13:F37" xr:uid="{1BB046FB-46C3-40BC-B6E1-E30D1F0B9ED1}">
+      <formula1>$F$64:$F$72</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13 F29" xr:uid="{7C14EC72-7C28-4BF3-AF6C-60555A8DBEF9}">
-      <formula1>$F$55:$F$62</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38 F2:F17" xr:uid="{7C14EC72-7C28-4BF3-AF6C-60555A8DBEF9}">
+      <formula1>$F$64:$F$71</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R31" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$55:$G$58</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A40" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$64:$A$67</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$55:$A$58</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R40" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$64:$G$68</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3327,20 +3520,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -3348,117 +3541,134 @@
         <v>94</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>91</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>21</v>
       </c>
-      <c r="E28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>93</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A3">
+  <conditionalFormatting sqref="A2:A4">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E4">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -3470,14 +3680,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
-      <formula1>$D$27:$D$34</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+      <formula1>$D$28:$D$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
-      <formula1>$A$27:$A$30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+      <formula1>$A$28:$A$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
-      <formula1>$E$27:$E$29</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+      <formula1>$E$28:$E$30</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3489,47 +3699,47 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="16" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="17" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="24.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="16" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="17" customWidth="1"/>
+    <col min="7" max="11" width="17.88671875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="16" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -3563,7 +3773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>25</v>
       </c>
@@ -3584,7 +3794,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
@@ -3605,7 +3815,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3615,7 +3825,9 @@
       <c r="C5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
       <c r="G5" s="18"/>
@@ -3626,7 +3838,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
@@ -3636,7 +3848,9 @@
       <c r="C6" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="E6" s="18"/>
       <c r="F6" s="19"/>
       <c r="G6" s="18"/>
@@ -3647,7 +3861,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>80</v>
       </c>
@@ -3657,7 +3871,9 @@
       <c r="C7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
       <c r="G7" s="18"/>
@@ -3668,7 +3884,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
@@ -3689,7 +3905,7 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +3926,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>73</v>
       </c>
@@ -3731,7 +3947,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>70</v>
       </c>
@@ -3741,7 +3957,9 @@
       <c r="C11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
       <c r="G11" s="18"/>
@@ -3769,33 +3987,33 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -3829,24 +4047,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>55</v>
       </c>
@@ -3863,7 +4081,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>56</v>
       </c>
@@ -3880,24 +4098,24 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
@@ -3914,7 +4132,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>59</v>
       </c>
@@ -3931,7 +4149,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -3948,7 +4166,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>61</v>
       </c>
@@ -3965,24 +4183,24 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
@@ -3999,7 +4217,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>64</v>
       </c>
@@ -4016,7 +4234,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>65</v>
       </c>
@@ -4033,24 +4251,24 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>67</v>
       </c>
@@ -4067,7 +4285,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>68</v>
       </c>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B052B-7ED0-455F-851C-28D2EEF714FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804138F-879E-4EFC-B415-910E63489186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="156">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -574,9 +574,6 @@
     <t>Scrap the old one or just keep the percussion and rebuild from there</t>
   </si>
   <si>
-    <t>Make the gridded  movement more tolerant</t>
-  </si>
-  <si>
     <t>Junctions are a bit janky, have to ensure player is able to turn easily enough</t>
   </si>
   <si>
@@ -608,6 +605,12 @@
   </si>
   <si>
     <t>Particle effects needed here as well as the actual model for each mask but made transparent</t>
+  </si>
+  <si>
+    <t>Change dying image to somethiong else</t>
+  </si>
+  <si>
+    <t>Make the gridded movement more tolerant</t>
   </si>
 </sst>
 </file>
@@ -844,14 +847,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,24 +1280,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -1350,15 +1353,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D2" s="4">
         <v>8</v>
@@ -1404,15 +1407,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1430,25 +1433,43 @@
       <c r="I3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1466,17 +1487,35 @@
       <c r="I4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -1530,7 +1569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -1584,7 +1623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -1638,7 +1677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -1692,7 +1731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
@@ -1746,7 +1785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
@@ -1800,7 +1839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
@@ -1854,15 +1893,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1878,17 +1917,35 @@
       <c r="I12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>102</v>
       </c>
@@ -1942,15 +1999,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -1968,17 +2025,35 @@
       <c r="I14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1986,7 +2061,7 @@
         <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
@@ -2032,7 +2107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
@@ -2086,7 +2161,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
@@ -2140,7 +2215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
@@ -2192,7 +2267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -2246,7 +2321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>91</v>
       </c>
@@ -2302,21 +2377,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>31</v>
+        <v>154</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2356,21 +2431,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="27" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2410,84 +2485,86 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C24" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="25" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="J24" s="1" t="s">
         <v>69</v>
       </c>
@@ -2516,85 +2593,83 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D26" s="1">
         <v>4</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>69</v>
@@ -2624,20 +2699,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D27" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>95</v>
@@ -2676,86 +2753,84 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1">
+      <c r="C29" s="4"/>
+      <c r="D29" s="1">
         <v>0.5</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>0.5</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="J29" s="1" t="s">
         <v>69</v>
       </c>
@@ -2784,22 +2859,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>95</v>
@@ -2838,20 +2913,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>95</v>
@@ -2860,7 +2937,7 @@
         <v>95</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>69</v>
@@ -2890,16 +2967,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="1">
         <v>2</v>
       </c>
@@ -2914,7 +2989,7 @@
         <v>95</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>69</v>
@@ -2944,22 +3019,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>95</v>
@@ -2998,20 +3073,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="3"/>
+      <c r="B34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>95</v>
@@ -3050,20 +3127,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>95</v>
@@ -3102,22 +3179,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>95</v>
@@ -3156,22 +3231,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>95</v>
@@ -3180,7 +3255,7 @@
         <v>95</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>69</v>
@@ -3210,20 +3285,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3234,7 +3309,7 @@
         <v>95</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>69</v>
@@ -3264,20 +3339,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="1">
+        <v>14</v>
+      </c>
+      <c r="D39" s="4">
         <v>0.5</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3318,135 +3393,189 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="G41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>102</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>7</v>
       </c>
-      <c r="G64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="G65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>91</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>21</v>
       </c>
-      <c r="G65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="G66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>92</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>25</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>93</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>5</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F68" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
         <v>80</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F69" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F70" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F71" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R72" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A40">
+  <autoFilter ref="A1:R73" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69:R1048576 H64:R68 G65:G68 G1:R63">
+  <conditionalFormatting sqref="G70:R1048576 H65:R69 G66:G69 G1:R64">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
@@ -3478,7 +3607,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:R40">
+  <conditionalFormatting sqref="G5:R41">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3499,17 +3628,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F40 F13:F37" xr:uid="{1BB046FB-46C3-40BC-B6E1-E30D1F0B9ED1}">
-      <formula1>$F$64:$F$72</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:F41 F13:F38" xr:uid="{1BB046FB-46C3-40BC-B6E1-E30D1F0B9ED1}">
+      <formula1>$F$65:$F$73</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38 F2:F17" xr:uid="{7C14EC72-7C28-4BF3-AF6C-60555A8DBEF9}">
-      <formula1>$F$64:$F$71</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39 F2:F17" xr:uid="{7C14EC72-7C28-4BF3-AF6C-60555A8DBEF9}">
+      <formula1>$F$65:$F$72</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A40" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$64:$A$67</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$65:$A$68</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R40" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$64:$G$68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R41" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$65:$G$69</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3523,17 +3652,17 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="48.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -3550,7 +3679,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -3567,7 +3696,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -3584,7 +3713,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
@@ -3601,7 +3730,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -3612,7 +3741,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -3623,7 +3752,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -3634,7 +3763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3642,22 +3771,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>73</v>
       </c>
@@ -3702,37 +3831,37 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="16" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="17" customWidth="1"/>
-    <col min="7" max="11" width="17.88671875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="24.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="16" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="17" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="16" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -3773,7 +3902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>25</v>
       </c>
@@ -3794,7 +3923,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
@@ -3815,7 +3944,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3838,7 +3967,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
@@ -3861,7 +3990,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>80</v>
       </c>
@@ -3884,7 +4013,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
@@ -3905,7 +4034,7 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
@@ -3926,7 +4055,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>73</v>
       </c>
@@ -3947,7 +4076,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>70</v>
       </c>
@@ -3987,26 +4116,26 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
@@ -4047,24 +4176,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>55</v>
       </c>
@@ -4081,7 +4210,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>56</v>
       </c>
@@ -4098,24 +4227,24 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
@@ -4132,7 +4261,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>59</v>
       </c>
@@ -4149,7 +4278,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -4166,7 +4295,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>61</v>
       </c>
@@ -4183,24 +4312,24 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
@@ -4217,7 +4346,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>64</v>
       </c>
@@ -4234,7 +4363,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>65</v>
       </c>
@@ -4251,24 +4380,24 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>67</v>
       </c>
@@ -4285,7 +4414,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>68</v>
       </c>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804138F-879E-4EFC-B415-910E63489186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E49816-4F50-4E32-AE8A-2E0771064BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="1785" yWindow="1245" windowWidth="21600" windowHeight="11235" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -607,10 +607,10 @@
     <t>Particle effects needed here as well as the actual model for each mask but made transparent</t>
   </si>
   <si>
-    <t>Change dying image to somethiong else</t>
-  </si>
-  <si>
     <t>Make the gridded movement more tolerant</t>
+  </si>
+  <si>
+    <t>Change dying image to something else</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -855,6 +855,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1901,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>143</v>
@@ -2382,7 +2385,7 @@
         <v>91</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>33</v>
@@ -2392,7 +2395,7 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>95</v>
@@ -2435,7 +2438,7 @@
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -2452,10 +2455,10 @@
         <v>95</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>69</v>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E49816-4F50-4E32-AE8A-2E0771064BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E408EDDB-CBFE-4FB1-8F30-728F33D8E1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1245" windowWidth="21600" windowHeight="11235" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="160">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -611,6 +611,18 @@
   </si>
   <si>
     <t>Change dying image to something else</t>
+  </si>
+  <si>
+    <t>Players can move beyond the end of lines that have no additional connection points.</t>
+  </si>
+  <si>
+    <t>On the end of lines with no additional points</t>
+  </si>
+  <si>
+    <t>Ability to grab other player</t>
+  </si>
+  <si>
+    <t>Allowing the grab mechanic to be used on other players so they can be launched across the level</t>
   </si>
 </sst>
 </file>
@@ -773,21 +785,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,7 +843,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -844,10 +851,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,9 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,10 +1311,10 @@
       <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1343,7 +1344,7 @@
       <c r="N1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="25" t="s">
         <v>50</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1366,10 +1367,10 @@
       <c r="C2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1420,10 +1421,10 @@
       <c r="C3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>73</v>
       </c>
@@ -1474,10 +1475,10 @@
       <c r="C4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>80</v>
       </c>
@@ -1528,10 +1529,10 @@
       <c r="C5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>73</v>
       </c>
@@ -1582,10 +1583,10 @@
       <c r="C6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>73</v>
       </c>
@@ -1636,10 +1637,10 @@
       <c r="C7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1690,10 +1691,10 @@
       <c r="C8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>73</v>
       </c>
@@ -1744,10 +1745,10 @@
       <c r="C9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1798,10 +1799,10 @@
       <c r="C10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
@@ -1852,10 +1853,10 @@
       <c r="C11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>73</v>
       </c>
@@ -1906,8 +1907,8 @@
       <c r="C12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1948,76 +1949,58 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>10</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>95</v>
@@ -2056,22 +2039,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>128</v>
+      <c r="B15" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>95</v>
@@ -2110,31 +2093,31 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>125</v>
+      <c r="B16" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1">
         <v>12</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>69</v>
@@ -2164,31 +2147,31 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
+      <c r="B17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>69</v>
@@ -2223,342 +2206,342 @@
         <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="G19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="G20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="J20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>0.5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>0.5</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G21" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="J21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="G22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="27" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="J23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="5">
-        <v>6</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="25" t="s">
-        <v>37</v>
-      </c>
       <c r="G24" s="1" t="s">
         <v>95</v>
       </c>
@@ -2566,7 +2549,7 @@
         <v>95</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>69</v>
@@ -2596,20 +2579,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="25" t="s">
-        <v>25</v>
+      <c r="F25" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>95</v>
@@ -2618,7 +2603,7 @@
         <v>95</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>69</v>
@@ -2648,85 +2633,83 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>69</v>
@@ -2756,83 +2739,83 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D28" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G29" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>69</v>
@@ -2867,26 +2850,26 @@
         <v>92</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>69</v>
@@ -2916,22 +2899,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>28</v>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>95</v>
@@ -2970,20 +2953,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>95</v>
@@ -2992,7 +2977,7 @@
         <v>95</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>69</v>
@@ -3022,16 +3007,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="B33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="1">
         <v>2</v>
       </c>
@@ -3046,7 +3029,7 @@
         <v>95</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>69</v>
@@ -3076,22 +3059,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>137</v>
+      <c r="B34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>95</v>
@@ -3130,20 +3113,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>95</v>
@@ -3187,15 +3172,15 @@
         <v>93</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>95</v>
@@ -3239,17 +3224,15 @@
         <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>95</v>
@@ -3293,17 +3276,17 @@
         <v>93</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="D38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>95</v>
@@ -3312,7 +3295,7 @@
         <v>95</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>69</v>
@@ -3342,20 +3325,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3366,7 +3349,7 @@
         <v>95</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>69</v>
@@ -3396,20 +3379,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3">
         <v>0.5</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="1" t="s">
         <v>5</v>
       </c>
@@ -3455,130 +3438,184 @@
         <v>93</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="G42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R42" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>93</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>5</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>37</v>
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R73" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A41">
+  <autoFilter ref="A1:R74" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A42">
     <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:R1048576 H65:R69 G66:G69 G1:R64">
+  <conditionalFormatting sqref="G71:R1048576 H66:R70 G67:G70 G1:R65">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
@@ -3589,7 +3626,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3599,9 +3636,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B21">
     <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B21)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
@@ -3610,7 +3647,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:R41">
+  <conditionalFormatting sqref="G5:R42">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3631,17 +3668,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:F41 F13:F38" xr:uid="{1BB046FB-46C3-40BC-B6E1-E30D1F0B9ED1}">
-      <formula1>$F$65:$F$73</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F42 F14:F39" xr:uid="{1BB046FB-46C3-40BC-B6E1-E30D1F0B9ED1}">
+      <formula1>$F$66:$F$74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39 F2:F17" xr:uid="{7C14EC72-7C28-4BF3-AF6C-60555A8DBEF9}">
-      <formula1>$F$65:$F$72</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40 F2:F18" xr:uid="{7C14EC72-7C28-4BF3-AF6C-60555A8DBEF9}">
+      <formula1>$F$66:$F$73</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$65:$A$68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A42" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$66:$A$69</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R41" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$65:$G$69</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R42" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$66:$G$70</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3655,7 +3692,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,7 +3709,7 @@
       <c r="B1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3695,7 +3732,7 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3712,7 +3749,7 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3729,7 +3766,24 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3795,12 +3849,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A4">
+  <conditionalFormatting sqref="A2:A5">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -3812,13 +3866,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
       <formula1>$D$28:$D$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
       <formula1>$A$28:$A$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
       <formula1>$E$28:$E$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3836,271 +3890,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="16" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="17" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="24.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="14" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4122,317 +4176,317 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E408EDDB-CBFE-4FB1-8F30-728F33D8E1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C32872-364A-43CE-9B42-D82206F8DDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="159">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Skip level button</t>
   </si>
   <si>
-    <t>Player add screen</t>
-  </si>
-  <si>
     <t>Make objects kickable</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Instantly skips the level from wherever you are</t>
   </si>
   <si>
-    <t>Should show upon game start</t>
-  </si>
-  <si>
     <t>Add colliders to stage poles</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>Opening screen</t>
   </si>
   <si>
-    <t>Shows on startup.</t>
-  </si>
-  <si>
     <t>Closing screen</t>
   </si>
   <si>
@@ -613,16 +604,22 @@
     <t>Change dying image to something else</t>
   </si>
   <si>
-    <t>Players can move beyond the end of lines that have no additional connection points.</t>
-  </si>
-  <si>
-    <t>On the end of lines with no additional points</t>
-  </si>
-  <si>
-    <t>Ability to grab other player</t>
-  </si>
-  <si>
-    <t>Allowing the grab mechanic to be used on other players so they can be launched across the level</t>
+    <t>Make puppets ragdoll</t>
+  </si>
+  <si>
+    <t>Make the puppets go limp when the stage transitions, anchor the puppets via the visual strings</t>
+  </si>
+  <si>
+    <t>Shows on startup, allows the players to enter the game. Provide smooth transitions between menu screen</t>
+  </si>
+  <si>
+    <t>Consider mid sem break, do we account for the time spent?</t>
+  </si>
+  <si>
+    <t>Consider bug testing time needed before pax, big playtesting</t>
+  </si>
+  <si>
+    <t>Done (Needs Review)</t>
   </si>
 </sst>
 </file>
@@ -785,16 +782,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,7 +845,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -851,6 +853,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -864,14 +872,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="19">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAF8A4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -896,12 +911,39 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAF8A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4FBA9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -969,10 +1011,51 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC4FBA9"/>
       <color rgb="FFEAF8A4"/>
     </mruColors>
   </colors>
@@ -1284,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,1718 +1386,1738 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="R1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="3">
+        <v>142</v>
+      </c>
+      <c r="D2" s="4">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="3">
+        <v>144</v>
+      </c>
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="3">
+        <v>146</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="3">
+        <v>107</v>
+      </c>
+      <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="3">
+        <v>107</v>
+      </c>
+      <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="3">
+        <v>108</v>
+      </c>
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
+      <c r="J13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>151</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D16" s="1">
         <v>12</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>126</v>
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D17" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="J20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="24" t="s">
-        <v>7</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>7</v>
+      <c r="F24" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>142</v>
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D25" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="22" t="s">
-        <v>37</v>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1">
         <v>4</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="22" t="s">
-        <v>25</v>
+      <c r="F26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="1">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>21</v>
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="D29" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>73</v>
+      <c r="F29" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
@@ -3023,611 +3126,578 @@
         <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>136</v>
+      <c r="C34" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>0.5</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>93</v>
-      </c>
       <c r="F69" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R74" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A42">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+  <autoFilter ref="A1:R73" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A41">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:R1048576 H66:R70 G67:G70 G1:R65">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="H65:R69 G1:R48 G50:R64 G49:H49 J49:R49 G70:R1048576 G66:G69">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Done (Needs Review)"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="B20">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3636,19 +3706,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B21)))</formula>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:R42">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="G5:R41">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3658,7 +3728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:R4">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3667,18 +3737,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F42 F14:F39" xr:uid="{1BB046FB-46C3-40BC-B6E1-E30D1F0B9ED1}">
-      <formula1>$F$66:$F$74</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$65:$A$68</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40 F2:F18" xr:uid="{7C14EC72-7C28-4BF3-AF6C-60555A8DBEF9}">
-      <formula1>$F$66:$F$73</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$64:$F$72</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A42" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$66:$A$69</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R42" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$66:$G$70</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R41" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$65:$G$70</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3692,7 +3759,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,125 +3771,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>120</v>
+      <c r="E2" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>120</v>
+      <c r="E3" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>120</v>
+      <c r="E4" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -3830,12 +3880,12 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
@@ -3845,34 +3895,34 @@
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Unfixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
       <formula1>$D$28:$D$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
       <formula1>$A$28:$A$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
       <formula1>$E$28:$E$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3890,271 +3940,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="13" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="14" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="13"/>
+    <col min="1" max="1" width="24.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="16" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="17" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="16" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="I2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="A3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="A4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="B5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="A6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="A7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="B8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="B9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="A10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="A11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4176,317 +4226,317 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C32872-364A-43CE-9B42-D82206F8DDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B8C50A-07BB-4403-9A16-B5F0ECD1B0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="163">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -620,6 +620,18 @@
   </si>
   <si>
     <t>Done (Needs Review)</t>
+  </si>
+  <si>
+    <t>Make grid separate for each level</t>
+  </si>
+  <si>
+    <t>Decide on standard grid dimensions going forward</t>
+  </si>
+  <si>
+    <t>Hiding the entire object of a level doesn't actually skip it</t>
+  </si>
+  <si>
+    <t>Left in an empty scene, also happens when you skip level 1 but level 2 is greyed out</t>
   </si>
 </sst>
 </file>
@@ -872,21 +884,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="12">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -911,39 +916,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4FBA9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1003,41 +981,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="9" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC4FBA9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1367,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1412,7 @@
         <v>93</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>66</v>
@@ -1494,22 +1442,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>92</v>
@@ -1607,23 +1553,21 @@
         <v>99</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>93</v>
@@ -1656,28 +1600,28 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>93</v>
@@ -1715,7 +1659,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>102</v>
@@ -1769,10 +1713,10 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
@@ -1823,10 +1767,10 @@
         <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -1836,7 +1780,7 @@
         <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>93</v>
@@ -1877,7 +1821,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>107</v>
@@ -1890,7 +1834,7 @@
         <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>93</v>
@@ -1931,10 +1875,10 @@
         <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="4">
         <v>4</v>
@@ -1947,10 +1891,10 @@
         <v>92</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>66</v>
@@ -1985,21 +1929,23 @@
         <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>93</v>
@@ -2032,142 +1978,140 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C15" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D15" s="5">
         <v>5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E15" s="5">
         <v>6.5</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F15" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="1">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2196,31 +2140,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>66</v>
@@ -2251,21 +2195,21 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>125</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>92</v>
@@ -2304,139 +2248,137 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
+      <c r="B18" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>93</v>
+      <c r="G20" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>66</v>
@@ -2466,31 +2408,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>92</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>66</v>
@@ -2520,31 +2462,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
+      <c r="B22" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>92</v>
+      <c r="G22" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>66</v>
@@ -2576,132 +2520,134 @@
     </row>
     <row r="23" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D25" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="25" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>93</v>
@@ -2734,22 +2680,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
+      <c r="F26" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>92</v>
@@ -2788,29 +2732,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D27" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>66</v>
@@ -2840,31 +2786,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>66</v>
@@ -2894,139 +2840,137 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>66</v>
@@ -3058,18 +3002,20 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>92</v>
@@ -3078,7 +3024,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>66</v>
@@ -3108,22 +3054,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>92</v>
@@ -3167,17 +3113,15 @@
         <v>90</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>92</v>
@@ -3186,7 +3130,7 @@
         <v>92</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>66</v>
@@ -3220,16 +3164,18 @@
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>92</v>
@@ -3268,20 +3214,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3"/>
+      <c r="B36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="D36" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>92</v>
@@ -3325,17 +3273,15 @@
         <v>90</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>92</v>
@@ -3379,13 +3325,11 @@
         <v>90</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
@@ -3398,7 +3342,7 @@
         <v>92</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>66</v>
@@ -3428,22 +3372,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>92</v>
@@ -3482,18 +3426,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
@@ -3506,7 +3450,7 @@
         <v>92</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>66</v>
@@ -3536,167 +3480,275 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D43" s="1">
         <v>3</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K47" t="s">
+      <c r="G43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K48" t="s">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>90</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F70" t="s">
         <v>5</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G70" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="G71" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R73" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A41">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+  <autoFilter ref="A1:R75" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A43">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65:R69 G1:R48 G50:R64 G49:H49 J49:R49 G70:R1048576 G66:G69">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="H67:R71 G52:R66 G51:H51 J51:R51 G72:R1048576 G68:G71 G1:R50">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"Done (Needs Review)"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"Done (Needs Review)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3706,18 +3758,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B20)))</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:R41">
+  <conditionalFormatting sqref="G7:R43">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3727,8 +3779,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:R4">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G2:R6">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3738,14 +3790,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$65:$A$68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A43" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$67:$A$70</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$64:$F$72</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$66:$F$74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R41" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$65:$G$70</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R43" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$67:$G$72</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3758,7 +3810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3837,6 +3889,23 @@
         <v>117</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
@@ -3899,30 +3968,30 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Unfixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
       <formula1>$D$28:$D$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
       <formula1>$A$28:$A$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
       <formula1>$E$28:$E$30</formula1>
     </dataValidation>
   </dataValidations>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B8C50A-07BB-4403-9A16-B5F0ECD1B0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC249FA2-DBB7-4558-BD9C-FC5D970802E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="1785" yWindow="1245" windowWidth="21600" windowHeight="11235" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>92</v>
@@ -2542,7 +2542,7 @@
         <v>92</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>66</v>
@@ -3810,7 +3810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC249FA2-DBB7-4558-BD9C-FC5D970802E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D17DA8-0553-4E25-A795-74A3E26C328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1245" windowWidth="21600" windowHeight="11235" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -143,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="166">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -632,6 +630,15 @@
   </si>
   <si>
     <t>Left in an empty scene, also happens when you skip level 1 but level 2 is greyed out</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Integrate Grid Movement into level switching</t>
+  </si>
+  <si>
+    <t>Each level will have it's own specific grid, so the level switcher will have to correctly load and unload each grid alongside the level.</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,15 +2147,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
@@ -2164,7 +2171,7 @@
         <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>66</v>
@@ -2194,22 +2201,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D17" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>92</v>
@@ -2248,31 +2255,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D18" s="1">
         <v>12</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>66</v>
@@ -2302,31 +2309,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>66</v>
@@ -2360,79 +2367,79 @@
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1"/>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="23" t="s">
+      <c r="G21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>66</v>
@@ -2462,34 +2469,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>8</v>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="G22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="J22" s="1" t="s">
         <v>66</v>
       </c>
@@ -2518,31 +2523,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>152</v>
+      <c r="B23" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>92</v>
+      <c r="G23" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>66</v>
@@ -2572,12 +2579,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -2596,7 +2603,7 @@
         <v>92</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>66</v>
@@ -2626,84 +2633,86 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C26" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <v>6</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="25" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J26" s="1" t="s">
         <v>66</v>
       </c>
@@ -2732,85 +2741,83 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>66</v>
@@ -2840,20 +2847,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D29" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>92</v>
@@ -2896,27 +2905,25 @@
       <c r="A30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>66</v>
@@ -2946,20 +2953,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="B31" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2967,65 +2974,65 @@
         <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J32" s="1" t="s">
         <v>66</v>
       </c>
@@ -3054,22 +3061,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>92</v>
@@ -3108,20 +3115,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>92</v>
@@ -3130,7 +3139,7 @@
         <v>92</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>66</v>
@@ -3160,16 +3169,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="1">
         <v>2</v>
       </c>
@@ -3184,7 +3191,7 @@
         <v>92</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>66</v>
@@ -3214,22 +3221,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>92</v>
@@ -3268,20 +3275,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>92</v>
@@ -3325,15 +3334,15 @@
         <v>90</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>92</v>
@@ -3377,17 +3386,15 @@
         <v>90</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>92</v>
@@ -3431,17 +3438,17 @@
         <v>90</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>92</v>
@@ -3450,7 +3457,7 @@
         <v>92</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>66</v>
@@ -3485,15 +3492,15 @@
         <v>90</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>92</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>66</v>
@@ -3534,20 +3541,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4">
         <v>0.5</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3593,148 +3600,202 @@
         <v>90</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" t="s">
-        <v>156</v>
+      <c r="G44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F66" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>5</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R75" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A43">
+  <autoFilter ref="A1:R76" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A44">
     <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:R71 G52:R66 G51:H51 J51:R51 G72:R1048576 G68:G71 G1:R50">
+  <conditionalFormatting sqref="H68:R72 G53:R67 G52:H52 J52:R52 G73:R1048576 G69:G72 G1:R51">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
@@ -3748,7 +3809,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="B23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3758,25 +3819,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="B23">
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B23)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:R43">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:R6">
@@ -3789,15 +3840,25 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G7:R44">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A43" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$67:$A$70</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A44" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$68:$A$71</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$66:$F$74</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$67:$F$75</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R43" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$67:$G$72</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R44" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$68:$G$73</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3808,10 +3869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,9 +3880,10 @@
     <col min="2" max="3" width="48.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -3835,10 +3897,13 @@
         <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -3851,11 +3916,12 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
@@ -3868,11 +3934,14 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -3885,11 +3954,14 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -3902,44 +3974,47 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -3947,7 +4022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>77</v>
       </c>
@@ -3973,7 +4048,7 @@
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -3985,14 +4060,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E5" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
       <formula1>$D$28:$D$35</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
       <formula1>$A$28:$A$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
-      <formula1>$E$28:$E$30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+      <formula1>$F$28:$F$30</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D17DA8-0553-4E25-A795-74A3E26C328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127DB6B2-E13C-474C-B570-832408B18EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="167">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>Each level will have it's own specific grid, so the level switcher will have to correctly load and unload each grid alongside the level.</t>
+  </si>
+  <si>
+    <t>Last Update</t>
   </si>
 </sst>
 </file>
@@ -801,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -879,6 +882,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -2387,7 +2393,7 @@
         <v>92</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>66</v>
@@ -3869,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,9 +3887,10 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -3902,8 +3909,11 @@
       <c r="F1" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -3920,8 +3930,9 @@
       <c r="F2" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
@@ -3934,14 +3945,13 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -3958,10 +3968,13 @@
         <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G4" s="33">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -3978,7 +3991,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="G5" s="33">
+        <v>44792</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4097,20 +4113,20 @@
   <sheetData>
     <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4371,20 +4387,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4428,21 +4444,21 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -4479,21 +4495,21 @@
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -4564,21 +4580,21 @@
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -4632,21 +4648,21 @@
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D17DA8-0553-4E25-A795-74A3E26C328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6F6C1-7559-46E1-A383-06EF9EDCC27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="1785" yWindow="1245" windowWidth="21600" windowHeight="11235" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="171">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -639,6 +639,21 @@
   </si>
   <si>
     <t>Each level will have it's own specific grid, so the level switcher will have to correctly load and unload each grid alongside the level.</t>
+  </si>
+  <si>
+    <t>Climbing string made player invulnerable to being killed by vines</t>
+  </si>
+  <si>
+    <t>After climbing, happens because puppet changes layer so can't be hit by vines</t>
+  </si>
+  <si>
+    <t>Make "Take 1" sign appear at level start, same as when you die</t>
+  </si>
+  <si>
+    <t>Make quit button return to title screen</t>
+  </si>
+  <si>
+    <t>As stated</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,16 +1468,18 @@
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>92</v>
@@ -1471,7 +1488,7 @@
         <v>92</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>66</v>
@@ -1505,7 +1522,7 @@
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1514,7 +1531,9 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>77</v>
       </c>
@@ -1525,7 +1544,7 @@
         <v>92</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>66</v>
@@ -2147,22 +2166,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>92</v>
@@ -2171,7 +2190,7 @@
         <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>66</v>
@@ -2201,22 +2220,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>92</v>
@@ -2225,7 +2244,7 @@
         <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>66</v>
@@ -2255,22 +2274,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>92</v>
@@ -2309,31 +2328,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1">
         <v>12</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>66</v>
@@ -2363,31 +2382,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>66</v>
@@ -2421,79 +2440,79 @@
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1"/>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="23" t="s">
+      <c r="G22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>66</v>
@@ -2523,34 +2542,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>8</v>
+      <c r="B23" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="G23" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="J23" s="1" t="s">
         <v>66</v>
       </c>
@@ -2579,31 +2596,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>152</v>
+      <c r="B24" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>92</v>
+      <c r="G24" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>66</v>
@@ -2633,12 +2652,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -2657,7 +2676,7 @@
         <v>92</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>66</v>
@@ -2687,84 +2706,86 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C27" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <v>6</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="25" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J27" s="1" t="s">
         <v>66</v>
       </c>
@@ -2793,85 +2814,83 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>66</v>
@@ -2901,20 +2920,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D30" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>92</v>
@@ -2953,31 +2974,29 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>66</v>
@@ -3007,139 +3026,137 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>66</v>
@@ -3171,18 +3188,20 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D35" s="1">
         <v>2</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>92</v>
@@ -3191,7 +3210,7 @@
         <v>92</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>66</v>
@@ -3221,22 +3240,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>92</v>
@@ -3280,17 +3299,15 @@
         <v>90</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>92</v>
@@ -3299,7 +3316,7 @@
         <v>92</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>66</v>
@@ -3333,16 +3350,18 @@
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="3"/>
+      <c r="B38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>92</v>
@@ -3381,20 +3400,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="D39" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>92</v>
@@ -3438,17 +3459,15 @@
         <v>90</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>92</v>
@@ -3487,18 +3506,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
@@ -3511,7 +3528,7 @@
         <v>92</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>66</v>
@@ -3541,22 +3558,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>92</v>
@@ -3595,18 +3612,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="D43" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
@@ -3619,7 +3636,7 @@
         <v>92</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>66</v>
@@ -3649,153 +3666,261 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D46" s="1">
         <v>3</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K50" t="s">
+      <c r="G46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" t="s">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F67" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>90</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F73" t="s">
         <v>5</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G73" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F72" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F73" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="G74" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R76" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A44">
+  <autoFilter ref="A1:R78" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A46">
     <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68:R72 G53:R67 G52:H52 J52:R52 G73:R1048576 G69:G72 G1:R51">
+  <conditionalFormatting sqref="H70:R74 G55:R69 G54:H54 J54:R54 G75:R1048576 G71:G74 G1:R53">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
@@ -3809,7 +3934,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3819,9 +3944,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B24)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
@@ -3840,7 +3965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:R44">
+  <conditionalFormatting sqref="G7:R46">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -3851,14 +3976,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A44" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$68:$A$71</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A46" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$70:$A$73</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$67:$F$75</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F46" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$69:$F$77</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R44" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$68:$G$73</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R46" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$70:$G$75</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3871,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,6 +4106,26 @@
         <v>118</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
@@ -4043,12 +4188,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5">
+  <conditionalFormatting sqref="A2:A6">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
+  <conditionalFormatting sqref="F2:F6">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -4060,13 +4205,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E5" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E6" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
       <formula1>$D$28:$D$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
       <formula1>$A$28:$A$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
       <formula1>$F$28:$F$30</formula1>
     </dataValidation>
   </dataValidations>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6F6C1-7559-46E1-A383-06EF9EDCC27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB5892E-07DE-4129-A0B8-626A2911AC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1245" windowWidth="21600" windowHeight="11235" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="1785" yWindow="1245" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="173">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -654,6 +654,12 @@
   </si>
   <si>
     <t>As stated</t>
+  </si>
+  <si>
+    <t>With the grid system, players stay snapped to grid between level transitions</t>
+  </si>
+  <si>
+    <t>Players have to effectively be deleted between levels to disconnect and restart, I think the respawn function can handle this easily, just needs to be activated in the right place</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3996,8 +4002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,6 +4132,26 @@
         <v>119</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
@@ -4188,12 +4214,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A6">
+  <conditionalFormatting sqref="A2:A7">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F6">
+  <conditionalFormatting sqref="F2:F7">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -4205,13 +4231,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E6" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E7" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
       <formula1>$D$28:$D$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
       <formula1>$A$28:$A$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
       <formula1>$F$28:$F$30</formula1>
     </dataValidation>
   </dataValidations>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB5892E-07DE-4129-A0B8-626A2911AC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CD4CD4-9140-4A22-AD0E-925F78108613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1785" yWindow="1245" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="175">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -660,6 +660,12 @@
   </si>
   <si>
     <t>Players have to effectively be deleted between levels to disconnect and restart, I think the respawn function can handle this easily, just needs to be activated in the right place</t>
+  </si>
+  <si>
+    <t>With the grid system, the players may be stuck on prior grid rather than finding the new grid with each level</t>
+  </si>
+  <si>
+    <t>Hopefully has to do with the same thing as above</t>
   </si>
 </sst>
 </file>
@@ -4003,7 +4009,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,7 +4095,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4109,7 +4115,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4132,7 +4138,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -4149,6 +4155,26 @@
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4214,12 +4240,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A7">
+  <conditionalFormatting sqref="A2:A8">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
+  <conditionalFormatting sqref="F2:F8">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -4231,13 +4257,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E7" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E8" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
       <formula1>$D$28:$D$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
       <formula1>$A$28:$A$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
       <formula1>$F$28:$F$30</formula1>
     </dataValidation>
   </dataValidations>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CD4CD4-9140-4A22-AD0E-925F78108613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125A826-2FB6-4C40-929E-7511E4F09825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1245" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="176">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>Hopefully has to do with the same thing as above</t>
+  </si>
+  <si>
+    <t>Finalized new levers, lots of refactoring and tidying up the workspace. Started on puppet ragdoll and begun integration of new grid system.</t>
   </si>
 </sst>
 </file>
@@ -1351,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,11 +4074,9 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4155,7 +4156,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,10 +4173,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4275,8 +4276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4381,7 +4382,9 @@
       <c r="C4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
       <c r="G4" s="18"/>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125A826-2FB6-4C40-929E-7511E4F09825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F17EF2C-0540-4736-B419-D1B3DCDC8CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1354,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>92</v>
@@ -2259,10 +2259,10 @@
         <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>66</v>
@@ -2316,7 +2316,7 @@
         <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>66</v>
@@ -2478,7 +2478,7 @@
         <v>92</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>66</v>
@@ -2962,7 +2962,7 @@
         <v>92</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>66</v>
@@ -3014,7 +3014,7 @@
         <v>92</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>66</v>
@@ -3174,7 +3174,7 @@
         <v>93</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>66</v>
@@ -3442,7 +3442,7 @@
         <v>92</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>66</v>
@@ -3597,10 +3597,10 @@
         <v>92</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>66</v>
@@ -4012,7 +4012,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,7 +4276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F17EF2C-0540-4736-B419-D1B3DCDC8CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5511BD5B-09D1-4995-9193-CEFF3D2A6977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -1354,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1366,8 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -2262,7 +2263,7 @@
         <v>93</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>66</v>
@@ -4012,7 +4013,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,7 +4157,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -4176,7 +4177,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5511BD5B-09D1-4995-9193-CEFF3D2A6977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F8F355-1FDD-4D7D-BCF0-0D87CA17D241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1354,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,7 +2263,7 @@
         <v>93</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>66</v>
@@ -2317,7 +2317,7 @@
         <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>66</v>
@@ -4012,7 +4012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F8F355-1FDD-4D7D-BCF0-0D87CA17D241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D5A082-53CE-4480-8FFF-6D3A84034F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="7215" yWindow="4605" windowWidth="24525" windowHeight="15495" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -2317,7 +2317,7 @@
         <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>66</v>
@@ -4012,7 +4012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D5A082-53CE-4480-8FFF-6D3A84034F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31810A-2363-4700-9872-96375465AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="4605" windowWidth="24525" windowHeight="15495" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="178">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -669,6 +669,12 @@
   </si>
   <si>
     <t>Finalized new levers, lots of refactoring and tidying up the workspace. Started on puppet ragdoll and begun integration of new grid system.</t>
+  </si>
+  <si>
+    <t>Small jump when switching between some lines</t>
+  </si>
+  <si>
+    <t>This only happens when moving in a negitive direction, either on X or Y, as the player jumps to a perpendicual line before continuing to travel along the one they are supposed to</t>
   </si>
 </sst>
 </file>
@@ -831,21 +837,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,7 +895,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -902,12 +903,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1354,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -1380,10 +1375,10 @@
       <c r="C1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1413,7 +1408,7 @@
       <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="25" t="s">
         <v>47</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1436,10 +1431,10 @@
       <c r="C2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1484,14 +1479,14 @@
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.5</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1538,16 +1533,16 @@
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1598,10 +1593,10 @@
         <v>160</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1652,10 +1647,10 @@
       <c r="C6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
@@ -1706,10 +1701,10 @@
       <c r="C7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
         <v>70</v>
       </c>
@@ -1760,10 +1755,10 @@
       <c r="C8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
@@ -1814,10 +1809,10 @@
       <c r="C9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>70</v>
       </c>
@@ -1868,10 +1863,10 @@
       <c r="C10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>70</v>
       </c>
@@ -1922,10 +1917,10 @@
       <c r="C11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1976,10 +1971,10 @@
       <c r="C12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>70</v>
       </c>
@@ -2030,10 +2025,10 @@
       <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
         <v>70</v>
       </c>
@@ -2084,8 +2079,8 @@
       <c r="C14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2126,23 +2121,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="1">
         <v>6.5</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2183,10 +2178,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2237,10 +2232,10 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2291,10 +2286,10 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2345,10 +2340,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2399,10 +2394,10 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2456,10 +2451,10 @@
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="1">
@@ -2559,26 +2554,26 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="23" t="s">
+      <c r="G23" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>92</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2612,14 +2607,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="1">
@@ -2628,10 +2623,10 @@
       <c r="E24" s="1">
         <v>0.5</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="20" t="s">
         <v>93</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2668,20 +2663,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>7</v>
       </c>
@@ -2722,20 +2717,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2777,20 +2772,20 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="1">
         <v>6</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="25" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="22" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2837,12 +2832,12 @@
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="22" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2937,10 +2932,10 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -2991,10 +2986,10 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C31" s="3"/>
@@ -3043,10 +3038,10 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="3"/>
@@ -3095,20 +3090,20 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="1">
         <v>0.5</v>
       </c>
       <c r="E33" s="1">
         <v>0.5</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3149,20 +3144,20 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -3206,10 +3201,10 @@
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="1">
@@ -3260,10 +3255,10 @@
       <c r="A36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="1">
@@ -3314,10 +3309,10 @@
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="1">
         <v>2</v>
       </c>
@@ -3366,10 +3361,10 @@
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D38" s="1">
@@ -3420,10 +3415,10 @@
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D39" s="1">
@@ -3692,10 +3687,10 @@
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>0.5</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4012,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,7 +4026,7 @@
       <c r="B1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4058,7 +4053,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4076,7 +4071,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4096,7 +4091,7 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4116,7 +4111,7 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4136,7 +4131,7 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4156,7 +4151,7 @@
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4176,8 +4171,26 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4242,12 +4255,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A8">
+  <conditionalFormatting sqref="A2:A9">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -4259,13 +4272,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E8" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E9" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
       <formula1>$D$28:$D$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A9" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
       <formula1>$A$28:$A$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
       <formula1>$F$28:$F$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -4283,273 +4296,273 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="16" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="17" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="24.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="14" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-    </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4571,317 +4584,317 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31810A-2363-4700-9872-96375465AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DF4961-67BD-440D-99C6-0344CF9044E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="210">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -671,10 +671,106 @@
     <t>Finalized new levers, lots of refactoring and tidying up the workspace. Started on puppet ragdoll and begun integration of new grid system.</t>
   </si>
   <si>
-    <t>Small jump when switching between some lines</t>
-  </si>
-  <si>
     <t>This only happens when moving in a negitive direction, either on X or Y, as the player jumps to a perpendicual line before continuing to travel along the one they are supposed to</t>
+  </si>
+  <si>
+    <t>Working on grid system, succesfully demonstrated proof of concept to Andy, was adopted moving forward.</t>
+  </si>
+  <si>
+    <t>Happens at corners near stage pillars, should be blocked from leaving the grid under any circumnstances</t>
+  </si>
+  <si>
+    <t>Apply a bright front light to the initial zoom in</t>
+  </si>
+  <si>
+    <t>Illuminate the characters faces</t>
+  </si>
+  <si>
+    <t>Restart not triggering, cannot manual restart or restart on death</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>Can leave the grid unintentionally, and get stuck</t>
+  </si>
+  <si>
+    <t>Small snap when switching between some lines</t>
+  </si>
+  <si>
+    <t>Animation does not have a blended transition, makes the character look glitchy</t>
+  </si>
+  <si>
+    <t>Happens when the joystick is positioned exactly between the wlak and run animations</t>
+  </si>
+  <si>
+    <t>Fix the ground texturing</t>
+  </si>
+  <si>
+    <t>Remind skye to push the texturing</t>
+  </si>
+  <si>
+    <t>Create stage fire and stage water</t>
+  </si>
+  <si>
+    <t>Use cloths of different colours</t>
+  </si>
+  <si>
+    <t>Make the vine prop killbox script into a prefab</t>
+  </si>
+  <si>
+    <t>Rename it to KillBox, make same size as single stage tile</t>
+  </si>
+  <si>
+    <t>Create breakable walls</t>
+  </si>
+  <si>
+    <t>Dennys to get wall from skye, break it in Maya</t>
+  </si>
+  <si>
+    <t>Fix animation blend transistion between player walking and running, add glowing eye trail to puppets, find shader package to highlight characters going behind objects</t>
+  </si>
+  <si>
+    <t>Rebuild the levels to work with the gridded movement</t>
+  </si>
+  <si>
+    <t>Working on fixing a bug which involves movement issues, still working on making edge snapping more tolerant, slingshotting mechanic</t>
+  </si>
+  <si>
+    <t>Make a clairvoyant mini grid around the characters</t>
+  </si>
+  <si>
+    <t>Displays the grid lines wherever they are even if raised in the y axis</t>
+  </si>
+  <si>
+    <t>Create slingshotting mechanics</t>
+  </si>
+  <si>
+    <t>Time knows what to do</t>
+  </si>
+  <si>
+    <t>Make some banners for the social vids, continue working on props, continue working on UI buttons</t>
+  </si>
+  <si>
+    <t>Work on the marble model, continue working on the background models</t>
+  </si>
+  <si>
+    <t>Condense act 1 into 3 levels, continue building levels for act 2</t>
+  </si>
+  <si>
+    <t>Bugfixing the transition issue, polish the zoom in on level start mechanic</t>
+  </si>
+  <si>
+    <t>Create stage water aas a hazard, create stage fire as well</t>
+  </si>
+  <si>
+    <t>Create an intro screen, rebuild UI so that it smoothly transitions</t>
+  </si>
+  <si>
+    <t>Texture the stage floor, create a pulley asset for the string anchors, come up with a vision for the last three acts</t>
+  </si>
+  <si>
+    <t>Continue working on the soundtrack and score</t>
   </si>
 </sst>
 </file>
@@ -1347,25 +1443,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -1421,7 +1517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -1475,7 +1571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -1502,7 +1598,7 @@
         <v>94</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>66</v>
@@ -1529,7 +1625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -1558,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>66</v>
@@ -1585,7 +1681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -1596,9 +1692,11 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>92</v>
@@ -1610,7 +1708,7 @@
         <v>93</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>66</v>
@@ -1637,7 +1735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -1648,9 +1746,11 @@
         <v>144</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
@@ -1664,7 +1764,7 @@
         <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>66</v>
@@ -1691,34 +1791,34 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>66</v>
@@ -1745,12 +1845,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>102</v>
@@ -1772,7 +1872,7 @@
         <v>93</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>66</v>
@@ -1799,12 +1899,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>102</v>
@@ -1826,7 +1926,7 @@
         <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>66</v>
@@ -1853,15 +1953,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3">
         <v>4</v>
@@ -1880,7 +1980,7 @@
         <v>93</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>66</v>
@@ -1907,12 +2007,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>107</v>
@@ -1925,7 +2025,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>93</v>
@@ -1934,7 +2034,7 @@
         <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>66</v>
@@ -1961,12 +2061,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>107</v>
@@ -1988,7 +2088,7 @@
         <v>93</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>66</v>
@@ -2015,15 +2115,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2036,13 +2136,13 @@
         <v>92</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>66</v>
@@ -2069,20 +2169,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>92</v>
@@ -2091,11 +2193,11 @@
         <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2121,90 +2223,92 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>6.5</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>66</v>
@@ -2231,22 +2335,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>92</v>
@@ -2255,11 +2359,11 @@
         <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="K17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2285,18 +2389,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -2312,7 +2416,7 @@
         <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>66</v>
@@ -2339,22 +2443,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>92</v>
@@ -2366,7 +2470,7 @@
         <v>92</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>66</v>
@@ -2393,35 +2497,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D20" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K20" s="1" t="s">
         <v>66</v>
       </c>
@@ -2447,18 +2551,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
@@ -2471,10 +2575,10 @@
         <v>92</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>66</v>
@@ -2501,20 +2605,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>92</v>
@@ -2523,10 +2629,10 @@
         <v>92</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>66</v>
@@ -2553,34 +2659,34 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>66</v>
@@ -2607,36 +2713,34 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>8</v>
+      <c r="B24" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>66</v>
@@ -2663,22 +2767,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>92</v>
@@ -2687,10 +2791,10 @@
         <v>92</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>66</v>
@@ -2717,22 +2821,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>92</v>
@@ -2744,7 +2846,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>66</v>
@@ -2771,34 +2873,34 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D27" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>92</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>93</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>66</v>
@@ -2825,29 +2927,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>66</v>
@@ -2877,18 +2983,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
@@ -2898,13 +3004,13 @@
         <v>92</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>66</v>
@@ -2931,22 +3037,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="D30" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>92</v>
@@ -2958,7 +3064,7 @@
         <v>92</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>66</v>
@@ -2985,20 +3091,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>92</v>
@@ -3037,20 +3145,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>188</v>
+      </c>
       <c r="D32" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>70</v>
+      <c r="F32" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>92</v>
@@ -3062,7 +3172,7 @@
         <v>92</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>66</v>
@@ -3089,34 +3199,34 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="D33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>66</v>
@@ -3143,22 +3253,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>19</v>
+      <c r="F34" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>92</v>
@@ -3167,10 +3275,10 @@
         <v>92</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>66</v>
@@ -3197,34 +3305,34 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>66</v>
@@ -3251,22 +3359,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>92</v>
@@ -3278,7 +3386,7 @@
         <v>92</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>66</v>
@@ -3305,20 +3413,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>92</v>
@@ -3327,10 +3437,10 @@
         <v>92</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>66</v>
@@ -3357,22 +3467,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>92</v>
@@ -3384,7 +3492,7 @@
         <v>92</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>66</v>
@@ -3411,22 +3519,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>92</v>
@@ -3438,7 +3544,7 @@
         <v>92</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>66</v>
@@ -3465,29 +3571,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>33</v>
+        <v>89</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>66</v>
@@ -3517,20 +3625,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D41" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>92</v>
@@ -3539,10 +3649,10 @@
         <v>92</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>66</v>
@@ -3569,22 +3679,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>92</v>
@@ -3593,10 +3703,10 @@
         <v>92</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>66</v>
@@ -3623,22 +3733,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="D43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>92</v>
@@ -3647,7 +3757,7 @@
         <v>92</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>66</v>
@@ -3677,20 +3787,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3701,7 +3809,7 @@
         <v>92</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>66</v>
@@ -3731,18 +3839,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="D45" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
@@ -3785,153 +3893,527 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="1">
         <v>6</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K52" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K59" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K53" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K60" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F69" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>99</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F77" t="s">
         <v>7</v>
       </c>
-      <c r="G70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="G77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>88</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F78" t="s">
         <v>19</v>
       </c>
-      <c r="G71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="G78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>89</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F79" t="s">
         <v>23</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>90</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F80" t="s">
         <v>5</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F74" t="s">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
         <v>77</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G81" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F75" t="s">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
         <v>34</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G82" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F76" t="s">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F77" t="s">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R78" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A46">
+  <autoFilter ref="A1:R85" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A53">
     <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:R74 G55:R69 G54:H54 J54:R54 G75:R1048576 G71:G74 G1:R53">
+  <conditionalFormatting sqref="H77:R81 G62:R76 G61:H61 J61:R61 G82:R1048576 G78:G81 G1:R60">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
@@ -3945,7 +4427,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3955,9 +4437,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B28">
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B28)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
@@ -3966,7 +4448,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:R6">
+  <conditionalFormatting sqref="G2:R7">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3976,7 +4458,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:R46">
+  <conditionalFormatting sqref="G8:R53">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -3987,14 +4469,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A46" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$70:$A$73</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A53" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$77:$A$80</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F46" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$69:$F$77</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$76:$F$84</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R46" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$70:$G$75</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R53" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$77:$G$82</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4005,21 +4487,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -4039,33 +4521,35 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -4075,95 +4559,93 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -4175,92 +4657,154 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A9">
+  <conditionalFormatting sqref="A2:A12">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
+  <conditionalFormatting sqref="F2:F12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -4272,14 +4816,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E9" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
-      <formula1>$D$28:$D$35</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E12" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+      <formula1>$D$30:$D$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A9" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
-      <formula1>$A$28:$A$31</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+      <formula1>$A$30:$A$33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
-      <formula1>$F$28:$F$30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+      <formula1>$F$30:$F$32</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4290,24 +4834,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="13" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="14" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="13"/>
+    <col min="1" max="1" width="24.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="13" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="14" customWidth="1"/>
+    <col min="7" max="11" width="17.88671875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="28" t="s">
         <v>37</v>
@@ -4324,7 +4868,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>86</v>
       </c>
@@ -4365,7 +4909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
@@ -4375,8 +4919,12 @@
       <c r="C3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="F3" s="16"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -4386,7 +4934,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>19</v>
       </c>
@@ -4399,7 +4947,9 @@
       <c r="D4" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -4409,7 +4959,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -4422,7 +4972,9 @@
       <c r="D5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -4432,7 +4984,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>34</v>
       </c>
@@ -4445,7 +4997,9 @@
       <c r="D6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -4455,7 +5009,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>77</v>
       </c>
@@ -4468,7 +5022,9 @@
       <c r="D7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -4478,7 +5034,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
@@ -4488,8 +5044,12 @@
       <c r="C8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>202</v>
+      </c>
       <c r="F8" s="16"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -4499,7 +5059,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
@@ -4509,8 +5069,12 @@
       <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="F9" s="16"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -4520,7 +5084,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>70</v>
       </c>
@@ -4530,8 +5094,12 @@
       <c r="C10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -4541,7 +5109,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>67</v>
       </c>
@@ -4554,7 +5122,9 @@
       <c r="D11" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -4581,9 +5151,9 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="28" t="s">
         <v>37</v>
@@ -4600,7 +5170,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -4641,7 +5211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>51</v>
       </c>
@@ -4658,7 +5228,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
@@ -4675,7 +5245,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
@@ -4692,7 +5262,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>54</v>
       </c>
@@ -4709,7 +5279,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>55</v>
       </c>
@@ -4726,7 +5296,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>56</v>
       </c>
@@ -4743,7 +5313,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>57</v>
       </c>
@@ -4760,7 +5330,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>58</v>
       </c>
@@ -4777,7 +5347,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>59</v>
       </c>
@@ -4794,7 +5364,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>60</v>
       </c>
@@ -4811,7 +5381,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>61</v>
       </c>
@@ -4828,7 +5398,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>62</v>
       </c>
@@ -4845,7 +5415,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>63</v>
       </c>
@@ -4862,7 +5432,7 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -4879,7 +5449,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>65</v>
       </c>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DF4961-67BD-440D-99C6-0344CF9044E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778236EE-2BBA-4732-A202-0312BFD1719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-21255" yWindow="-5910" windowWidth="20775" windowHeight="18075" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1445,23 +1445,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="18" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>89</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -4321,22 +4321,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K59" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K60" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>99</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>77</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>34</v>
       </c>
@@ -4396,12 +4396,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>70</v>
       </c>
@@ -4490,18 +4490,18 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="48.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -4778,22 +4778,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>70</v>
       </c>
@@ -4834,24 +4834,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="13" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="14" customWidth="1"/>
-    <col min="7" max="11" width="17.88671875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="24.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="14" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="28" t="s">
         <v>37</v>
@@ -4868,7 +4868,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>86</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>19</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>34</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>77</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>70</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>67</v>
       </c>
@@ -5151,9 +5151,9 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="28" t="s">
         <v>37</v>
@@ -5170,7 +5170,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>51</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>54</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>55</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>56</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>57</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>58</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>59</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>60</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>61</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>62</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>63</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>65</v>
       </c>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778236EE-2BBA-4732-A202-0312BFD1719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC4F058-932E-43E0-AA2E-A32BA585B4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21255" yWindow="-5910" windowWidth="20775" windowHeight="18075" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -4490,7 +4490,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4538,7 +4538,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC4F058-932E-43E0-AA2E-A32BA585B4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD317CE-B7A3-47B3-BF96-FA237C05545F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21255" yWindow="-5910" windowWidth="20775" windowHeight="18075" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="211">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -771,13 +771,16 @@
   </si>
   <si>
     <t>Continue working on the soundtrack and score</t>
+  </si>
+  <si>
+    <t>Finished Item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,6 +818,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -933,14 +943,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -991,16 +998,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1008,6 +1007,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1445,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,10 +1484,10 @@
       <c r="C1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1504,7 +1517,7 @@
       <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="22" t="s">
         <v>47</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1517,221 +1530,221 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" s="27" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="26">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="27" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="26">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="K3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="27" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="26">
         <v>0.5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="K4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="27" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="26">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="K5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1791,57 +1804,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:18" s="27" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="26">
         <v>10</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="K7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2279,59 +2292,59 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:18" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="25">
         <v>5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="25">
         <v>6.5</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" s="1" t="s">
+      <c r="K16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2497,165 +2510,165 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:18" s="27" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="25">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="25">
+        <v>4</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="J21" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="B22" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="25">
+        <v>3</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="G22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="1" t="s">
+      <c r="K22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2794,7 +2807,7 @@
         <v>92</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>66</v>
@@ -2890,10 +2903,10 @@
       <c r="F27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="20" t="s">
+      <c r="G27" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>92</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2927,59 +2940,59 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="25">
         <v>0.5</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="25">
         <v>0.5</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R28" s="1" t="s">
+      <c r="J28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3152,14 +3165,14 @@
       <c r="B32" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="21" t="s">
         <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3206,14 +3219,14 @@
       <c r="B33" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>139</v>
       </c>
       <c r="D33" s="1">
         <v>6</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3260,12 +3273,12 @@
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -3571,57 +3584,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="1">
+      <c r="C40" s="26"/>
+      <c r="D40" s="25">
         <v>0.5</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="25">
         <v>0.5</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R40" s="1" t="s">
+      <c r="J40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R40" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4334,6 +4347,9 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>67</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4508,7 +4524,7 @@
       <c r="B1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4835,304 +4851,304 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="13" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="14" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="13"/>
+    <col min="1" max="1" width="24.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="12" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="13" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="E11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5154,317 +5170,317 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD317CE-B7A3-47B3-BF96-FA237C05545F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB805DC7-F940-487A-82B4-115D9873F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -141,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="211">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -611,12 +614,6 @@
     <t>Shows on startup, allows the players to enter the game. Provide smooth transitions between menu screen</t>
   </si>
   <si>
-    <t>Consider mid sem break, do we account for the time spent?</t>
-  </si>
-  <si>
-    <t>Consider bug testing time needed before pax, big playtesting</t>
-  </si>
-  <si>
     <t>Done (Needs Review)</t>
   </si>
   <si>
@@ -746,9 +743,6 @@
     <t>Create slingshotting mechanics</t>
   </si>
   <si>
-    <t>Time knows what to do</t>
-  </si>
-  <si>
     <t>Make some banners for the social vids, continue working on props, continue working on UI buttons</t>
   </si>
   <si>
@@ -774,6 +768,15 @@
   </si>
   <si>
     <t>Finished Item</t>
+  </si>
+  <si>
+    <t>Killbox working inconsistently on stage hazards</t>
+  </si>
+  <si>
+    <t>Water seems to have a collider blocking the hitbox, fire hazard hitbox not working at all</t>
+  </si>
+  <si>
+    <t>Tim knows what to do</t>
   </si>
 </sst>
 </file>
@@ -943,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1001,12 +1004,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1021,51 +1018,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1127,6 +1097,123 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC4FBA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAF8A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAF8A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4FBA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1458,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,221 +1617,223 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="27" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="24">
         <v>8</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="24">
+        <v>9</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="27" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="J2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26">
+      <c r="B3" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>0.5</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="25" t="s">
+      <c r="G3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="27" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="K3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="25" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>0.5</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="25" t="s">
+      <c r="G4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="27" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26">
-        <v>1</v>
-      </c>
-      <c r="E5" s="26">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="25" t="s">
+      <c r="K5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1777,7 +1866,7 @@
         <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>66</v>
@@ -1804,57 +1893,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="27" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="B7" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="34">
         <v>10</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="25" t="s">
+      <c r="G7" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="25" t="s">
+      <c r="J7" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2265,7 +2354,7 @@
         <v>93</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>66</v>
@@ -2292,59 +2381,59 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="23">
         <v>5</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <v>6.5</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="25" t="s">
+      <c r="G16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="J16" s="25" t="s">
+      <c r="I16" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" s="25" t="s">
+      <c r="K16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2353,15 +2442,17 @@
         <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2375,7 +2466,7 @@
         <v>92</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>66</v>
@@ -2407,17 +2498,19 @@
         <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>92</v>
@@ -2429,7 +2522,7 @@
         <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>66</v>
@@ -2461,10 +2554,10 @@
         <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -2510,165 +2603,171 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="27" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:18" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="25">
+      <c r="B20" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
+      <c r="E20" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="25" t="s">
+      <c r="G20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R20" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="K20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="25">
+      <c r="B21" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="23">
         <v>4</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="23">
+        <v>3</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="25" t="s">
+      <c r="G21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R21" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="K21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <v>3</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="23">
+        <v>3</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="25" t="s">
+      <c r="G22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="25" t="s">
+      <c r="K22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2940,59 +3039,59 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+    <row r="28" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="23">
         <v>0.5</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <v>0.5</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R28" s="25" t="s">
+      <c r="J28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3020,10 +3119,10 @@
         <v>92</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>66</v>
@@ -3055,10 +3154,10 @@
         <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -3163,10 +3262,10 @@
         <v>89</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -3377,10 +3476,10 @@
         <v>89</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -3485,7 +3584,7 @@
         <v>89</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="1">
@@ -3584,57 +3683,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+    <row r="40" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="25">
+      <c r="C40" s="24"/>
+      <c r="D40" s="23">
         <v>0.5</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="23">
         <v>0.5</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" s="25" t="s">
+      <c r="G40" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R40" s="25" t="s">
+      <c r="J40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R40" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4119,110 +4218,110 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="24">
         <v>3</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
+      <c r="E50" s="24"/>
+      <c r="F50" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="24" t="s">
         <v>92</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="M50" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O50" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="24">
         <v>0.5</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="24"/>
+      <c r="F51" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="24" t="s">
         <v>92</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="M51" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O51" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q51" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R51" s="24" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4253,7 +4352,7 @@
         <v>92</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>66</v>
@@ -4307,7 +4406,7 @@
         <v>92</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>66</v>
@@ -4332,24 +4431,14 @@
       </c>
       <c r="R53" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K60" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>67</v>
       </c>
-      <c r="G76" s="27" t="s">
-        <v>210</v>
+      <c r="G76" s="25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4401,7 +4490,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
@@ -4424,22 +4513,22 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R85" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A53">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+  <conditionalFormatting sqref="A2:A49 A52:A53">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:R81 G62:R76 G61:H61 J61:R61 G82:R1048576 G78:G81 G1:R60">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="H77:R81 G62:R76 G61:H61 J61:R61 G82:R1048576 G78:G81 G1:R49 G52:R60 I50:J51">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4454,13 +4543,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4474,7 +4563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:R53">
+  <conditionalFormatting sqref="G8:R49 G52:R53 I50:J51">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4503,10 +4592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4531,59 +4620,59 @@
         <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -4593,100 +4682,98 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -4694,40 +4781,40 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
+      <c r="E10" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
+      <c r="E11" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>119</v>
@@ -4737,109 +4824,129 @@
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B13" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F30" t="s">
-        <v>117</v>
+      <c r="E13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A12">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A12:A13 A2:A9">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"Unfixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E12" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
-      <formula1>$D$30:$D$37</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E13" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+      <formula1>$D$31:$D$38</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
-      <formula1>$A$30:$A$33</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+      <formula1>$A$31:$A$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
-      <formula1>$F$30:$F$32</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+      <formula1>$F$31:$F$33</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4850,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4869,20 +4976,20 @@
   <sheetData>
     <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -4936,10 +5043,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="14"/>
@@ -4961,10 +5068,10 @@
         <v>82</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="14"/>
@@ -4989,7 +5096,7 @@
         <v>130</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14"/>
@@ -5014,7 +5121,7 @@
         <v>136</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
@@ -5039,7 +5146,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
@@ -5061,10 +5168,10 @@
         <v>73</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
@@ -5086,10 +5193,10 @@
         <v>71</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
@@ -5111,10 +5218,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
@@ -5164,27 +5271,30 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5196,10 +5306,10 @@
       <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -5228,21 +5338,21 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -5279,21 +5389,21 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5364,21 +5474,21 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -5432,21 +5542,21 @@
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB805DC7-F940-487A-82B4-115D9873F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8459F123-6DC3-4C9B-A6C2-9FD8F0F202EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
     <sheet name="Bug Tracking" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Meeting Notes" sheetId="5" r:id="rId3"/>
-    <sheet name="Gantt Chart" sheetId="4" r:id="rId4"/>
+    <sheet name="Usability Testing" sheetId="6" r:id="rId4"/>
+    <sheet name="Performance Testing" sheetId="7" r:id="rId5"/>
+    <sheet name="Gantt Chart" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$85</definedName>
@@ -144,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="215">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -777,6 +779,18 @@
   </si>
   <si>
     <t>Tim knows what to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing plan, plan what needs to be tested, iterate, </t>
+  </si>
+  <si>
+    <t>benchmark things like frames per second, structure a playtesting process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many deaths per level, time taken, data driven decisions, what was favourite levels? </t>
+  </si>
+  <si>
+    <t>Least favourite levels, etc.</t>
   </si>
 </sst>
 </file>
@@ -1018,12 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1031,25 +1039,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="12">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1074,49 +1081,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4FBA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1159,6 +1129,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAF8A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1174,46 +1154,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC4FBA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1545,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,23 +1837,23 @@
       <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>10</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>92</v>
       </c>
       <c r="I7" s="23" t="s">
@@ -4514,21 +4454,21 @@
   </sheetData>
   <autoFilter ref="A1:R85" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
   <conditionalFormatting sqref="A2:A49 A52:A53">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:R81 G62:R76 G61:H61 J61:R61 G82:R1048576 G78:G81 G1:R49 G52:R60 I50:J51">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4543,13 +4483,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4923,18 +4863,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:A13 A2:A9">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Unfixed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4957,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4976,20 +4916,20 @@
   <sheetData>
     <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5267,6 +5207,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B1403-352E-4AED-9F5F-27791D86941F}">
+  <dimension ref="C5:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3DEBB8-1969-4CBE-B855-486715171A1F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05F207C-B898-4037-B135-7745119EBD21}">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -5281,20 +5270,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5338,21 +5327,21 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -5389,21 +5378,21 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5474,21 +5463,21 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -5542,21 +5531,21 @@
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8459F123-6DC3-4C9B-A6C2-9FD8F0F202EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38588B8-1A25-4BFA-B431-8D243A9F1ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -146,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="215">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -1485,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,7 +3435,7 @@
         <v>92</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>66</v>
@@ -4535,7 +4532,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4579,9 +4576,11 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -5210,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B1403-352E-4AED-9F5F-27791D86941F}">
   <dimension ref="C5:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38588B8-1A25-4BFA-B431-8D243A9F1ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1950C5F-E6F6-491B-95B3-E83F6D1D0C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-21195" yWindow="8190" windowWidth="20775" windowHeight="18075" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1482,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,7 +2829,9 @@
       <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2846,7 +2848,7 @@
         <v>93</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>66</v>
@@ -3421,7 +3423,9 @@
       <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>19</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>93</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>66</v>
@@ -3492,7 +3496,7 @@
         <v>92</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>66</v>
@@ -3544,7 +3548,7 @@
         <v>92</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>66</v>
@@ -3704,7 +3708,7 @@
         <v>93</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>66</v>
@@ -3972,7 +3976,7 @@
         <v>92</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>66</v>
@@ -4532,7 +4536,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,24 +4567,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>118</v>
+      <c r="F2" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennys\Documents\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1950C5F-E6F6-491B-95B3-E83F6D1D0C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC61F1EC-D914-41E4-9C8F-03A367030ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21195" yWindow="8190" windowWidth="20775" windowHeight="18075" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
   <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,7 +3862,7 @@
         <v>92</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>66</v>
@@ -3916,7 +3916,7 @@
         <v>92</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>66</v>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennys\Documents\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC61F1EC-D914-41E4-9C8F-03A367030ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEAA6CC-066B-43F1-A99C-2E2606A4A980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -3916,7 +3916,7 @@
         <v>92</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>66</v>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennys\Documents\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEAA6CC-066B-43F1-A99C-2E2606A4A980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B41C3-6F0C-4670-B0F2-F9B099E32AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="217">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -788,6 +788,12 @@
   </si>
   <si>
     <t>Least favourite levels, etc.</t>
+  </si>
+  <si>
+    <t>Add multiple directions stage props can move</t>
+  </si>
+  <si>
+    <t>All props move in from the top, add the option to move in from side and bottom</t>
   </si>
 </sst>
 </file>
@@ -1480,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1501,10 @@
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -3255,17 +3264,19 @@
         <v>89</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="D33" s="1">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
       <c r="F33" s="21" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>92</v>
@@ -3274,13 +3285,13 @@
         <v>92</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>66</v>
@@ -3304,20 +3315,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>92</v>
@@ -3326,10 +3339,10 @@
         <v>92</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>66</v>
@@ -3356,34 +3369,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="1">
         <v>4</v>
       </c>
+      <c r="C35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
+      <c r="F35" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>66</v>
@@ -3415,34 +3426,32 @@
         <v>89</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>66</v>
@@ -3466,20 +3475,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="D37" s="1">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>19</v>
       </c>
@@ -3493,10 +3504,10 @@
         <v>92</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>66</v>
@@ -3520,14 +3531,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
@@ -3572,143 +3585,141 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="K40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R40" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B41" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="23">
+      <c r="C41" s="24"/>
+      <c r="D41" s="23">
         <v>0.5</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E41" s="23">
         <v>0.5</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F41" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" s="23" t="s">
+      <c r="G41" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I41" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R40" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>93</v>
+      <c r="J41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>66</v>
@@ -3732,22 +3743,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>92</v>
@@ -3756,13 +3767,13 @@
         <v>92</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>66</v>
@@ -3786,22 +3797,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>92</v>
@@ -3813,7 +3824,7 @@
         <v>92</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>66</v>
@@ -3840,20 +3851,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>92</v>
@@ -3862,7 +3875,7 @@
         <v>92</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>66</v>
@@ -3892,16 +3905,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="1">
         <v>2</v>
       </c>
@@ -3946,22 +3957,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>92</v>
@@ -3970,13 +3981,13 @@
         <v>92</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>66</v>
@@ -4000,20 +4011,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>92</v>
@@ -4025,10 +4038,10 @@
         <v>92</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>66</v>
@@ -4057,15 +4070,15 @@
         <v>90</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>92</v>
@@ -4109,85 +4122,83 @@
         <v>90</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C49" s="3"/>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="G50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="24">
-        <v>3</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K50" s="24" t="s">
+      <c r="K50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L50" s="24" t="s">
@@ -4212,18 +4223,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D51" s="24">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="24" t="s">
@@ -4266,36 +4277,36 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="B52" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="24">
         <v>0.5</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="24"/>
+      <c r="F52" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="24" t="s">
         <v>92</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K52" s="24" t="s">
         <v>66</v>
       </c>
       <c r="L52" s="1" t="s">
@@ -4325,141 +4336,174 @@
         <v>90</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J53" s="1" t="s">
+      <c r="G54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F76" t="s">
+      <c r="K54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
         <v>67</v>
       </c>
-      <c r="G76" s="25" t="s">
+      <c r="G77" s="25" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>99</v>
-      </c>
-      <c r="F77" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>90</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>5</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G81" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
         <v>77</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
         <v>34</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F84" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R85" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A49 A52:A53">
+  <conditionalFormatting sqref="A53:A54 A2:A50">
     <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:R81 G62:R76 G61:H61 J61:R61 G82:R1048576 G78:G81 G1:R49 G52:R60 I50:J51">
+  <conditionalFormatting sqref="G62:H62 G79:G82 I51:J52 H78:K82 G63:K77 J62:K62 G83:K1048576 G1:R31 L32:R49 L52:R1048576 G53:K61 G32:K50">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
@@ -4504,7 +4548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:R49 G52:R53 I50:J51">
+  <conditionalFormatting sqref="I51:J52 G8:R31 L32:R49 L52:R53 G53:K54 G32:K50">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4515,14 +4559,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A53" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$77:$A$80</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A54" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$78:$A$81</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$76:$F$84</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F54" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$77:$F$85</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R53" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$77:$G$82</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R31 L32:R53 G32:K54" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$78:$G$83</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B41C3-6F0C-4670-B0F2-F9B099E32AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD48E2-B293-492A-B3BF-CA58770A7B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="224">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Make is easier to see, doesn't come through</t>
   </si>
   <si>
-    <t>I'm sure luaren will have a vision</t>
-  </si>
-  <si>
     <t>Purely cosmetic, polish</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
     <t>Replace the old model, optimise the grid to get a blance of enough lines to move on</t>
   </si>
   <si>
-    <t>Add more props and general items as well as backdrop to enhance the stag effect</t>
-  </si>
-  <si>
     <t>Make the camera start very zoomed in the first level</t>
   </si>
   <si>
@@ -794,6 +788,33 @@
   </si>
   <si>
     <t>All props move in from the top, add the option to move in from side and bottom</t>
+  </si>
+  <si>
+    <t>Levers a bit sketch</t>
+  </si>
+  <si>
+    <t>String hook position moves, but upon dying, it does not move back, also lever doesn’t seem to reset</t>
+  </si>
+  <si>
+    <t>Lever positioning a bit sketch</t>
+  </si>
+  <si>
+    <t>On level with two levers which move you between the two houses still pretty sure the blue lever should move the red puppet and the red lever should move the blue puppet, also suffers from same issue above, also also, levers are a bit hard to acces due to being on that slightly lowered hedge, consider widening the building roof and just putting them next to the players</t>
+  </si>
+  <si>
+    <t>Create script to control which panels fo the stage will be deactivated for a given level</t>
+  </si>
+  <si>
+    <t>Use 2D array of "on" and "off" switches</t>
+  </si>
+  <si>
+    <t>Add more props and general items as well as backdrop to enhance the stage effect, consider large set pieces specifically where any movement is supposed to be blocked: Don't just remove the grid points, put something physically in the player's way</t>
+  </si>
+  <si>
+    <t>I'm sure lauren will have a vision</t>
+  </si>
+  <si>
+    <t>Choose which items should be brought on sideways</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,69 +1530,69 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="D2" s="24">
         <v>8</v>
@@ -1580,51 +1601,51 @@
         <v>9</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24">
@@ -1637,51 +1658,51 @@
         <v>7</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>95</v>
-      </c>
       <c r="K3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="25" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>146</v>
       </c>
       <c r="D4" s="24">
         <v>1</v>
@@ -1690,51 +1711,51 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24">
@@ -1747,51 +1768,51 @@
         <v>7</v>
       </c>
       <c r="G5" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="J5" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
@@ -1800,486 +1821,486 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D7" s="32">
         <v>10</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="J7" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="K7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3">
         <v>4</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2288,54 +2309,54 @@
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D16" s="23">
         <v>5</v>
@@ -2347,51 +2368,51 @@
         <v>7</v>
       </c>
       <c r="G16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="I16" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -2403,501 +2424,505 @@
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="23">
+        <v>3</v>
+      </c>
+      <c r="E24" s="23">
+        <v>3</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="23">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="23">
-        <v>4</v>
-      </c>
-      <c r="E21" s="23">
-        <v>3</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="23">
-        <v>3</v>
-      </c>
-      <c r="E22" s="23">
-        <v>3</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="J24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="1">
         <v>12</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="D26" s="1">
         <v>12</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>92</v>
@@ -2909,257 +2934,257 @@
         <v>92</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="H30" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I30" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -3169,387 +3194,385 @@
         <v>7</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="1">
         <v>1</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="21" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>92</v>
@@ -3561,949 +3584,1059 @@
         <v>92</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="D39" s="1">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D40" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R40" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>66</v>
+      <c r="G41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="K42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R42" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>66</v>
+      <c r="I43" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D45" s="1">
         <v>2</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C47" s="3"/>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="D49" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="1">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K50" s="1" t="s">
+      <c r="K52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R52" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="24">
+        <v>3</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
         <v>66</v>
       </c>
-      <c r="L50" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M50" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="N50" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O50" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="P50" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q50" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="R50" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="24">
-        <v>3</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L51" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="N51" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O51" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="P51" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q51" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="R51" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F77" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>99</v>
-      </c>
-      <c r="F78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>92</v>
+      <c r="G79" s="25" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" t="s">
         <v>5</v>
       </c>
-      <c r="G81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F82" t="s">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F83" t="s">
-        <v>34</v>
-      </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="G84" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R85" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A53:A54 A2:A50">
+  <autoFilter ref="A1:R87" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A55:A56 A2:A52">
     <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:H62 G79:G82 I51:J52 H78:K82 G63:K77 J62:K62 G83:K1048576 G1:R31 L32:R49 L52:R1048576 G53:K61 G32:K50">
+  <conditionalFormatting sqref="G64:H64 G81:G84 I53:J54 H80:K84 G65:K79 J64:K64 G85:K1048576 L34:R51 L54:R1048576 G55:K63 G34:K52 G1:R33">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
@@ -4517,7 +4650,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="B30">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4527,9 +4660,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="B30">
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B30)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
@@ -4548,7 +4681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:J52 G8:R31 L32:R49 L52:R53 G53:K54 G32:K50">
+  <conditionalFormatting sqref="I53:J54 L34:R51 L54:R55 G55:K56 G34:K52 G8:R33">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4559,14 +4692,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A54" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$78:$A$81</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A56" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$80:$A$83</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F54" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$77:$F$85</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F56" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$79:$F$87</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R31 L32:R53 G32:K54" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$78:$G$83</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L34:R55 G34:K56 G2:R33" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$80:$G$85</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4577,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4593,328 +4726,368 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="B7" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:A13 A2:A9">
+  <conditionalFormatting sqref="A14:A15 A2:A11">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13">
+  <conditionalFormatting sqref="F2:F15">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -4926,14 +5099,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E13" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
-      <formula1>$D$31:$D$38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E15" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+      <formula1>$D$33:$D$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
-      <formula1>$A$31:$A$34</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+      <formula1>$A$33:$A$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
-      <formula1>$F$31:$F$33</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+      <formula1>$F$33:$F$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4964,7 +5137,7 @@
     <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -4980,60 +5153,60 @@
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="14"/>
@@ -5046,19 +5219,19 @@
     </row>
     <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="14"/>
@@ -5074,16 +5247,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14"/>
@@ -5096,19 +5269,19 @@
     </row>
     <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
@@ -5121,19 +5294,19 @@
     </row>
     <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
@@ -5149,16 +5322,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
@@ -5174,16 +5347,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
@@ -5196,19 +5369,19 @@
     </row>
     <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
@@ -5221,19 +5394,19 @@
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
@@ -5265,22 +5438,22 @@
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5318,7 +5491,7 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -5334,48 +5507,48 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -5392,7 +5565,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5409,7 +5582,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5426,7 +5599,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -5443,7 +5616,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5460,7 +5633,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5477,7 +5650,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5494,7 +5667,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5511,7 +5684,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -5528,7 +5701,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5545,7 +5718,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5562,7 +5735,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5579,7 +5752,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -5596,7 +5769,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5613,7 +5786,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD48E2-B293-492A-B3BF-CA58770A7B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E2C8C-5FC1-4879-810D-2A12A3AAA5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="233">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -815,6 +815,33 @@
   </si>
   <si>
     <t>Choose which items should be brought on sideways</t>
+  </si>
+  <si>
+    <t>Consider using slower flicker script for stage lights</t>
+  </si>
+  <si>
+    <t>Use the script Dylan made for the into screen, currently light flicker is too fast and random</t>
+  </si>
+  <si>
+    <t>Collider is like a pentagon hexagon thing, we should aim for a cylinder if possible.</t>
+  </si>
+  <si>
+    <t>Can walk underneath table edge in first level</t>
+  </si>
+  <si>
+    <t>Same as above for mushrooms</t>
+  </si>
+  <si>
+    <t>These are cones, not as bad cause it does kind of deflect the jump backwards, but worth checking if we want cylinders</t>
+  </si>
+  <si>
+    <t>They kind of extend into the skull making the effect look strange when idle, consider extending outwards around the sides of the mask when idle: Perhaps even make the eyes slightly translucent and put a point light inside them to make the particle effects blend with the eyeball better</t>
+  </si>
+  <si>
+    <t>Consider which way the particles should be extending by default on the eyes</t>
+  </si>
+  <si>
+    <t>Add left or right option for where they can come in from for extra dynamics</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,11 +2498,9 @@
         <v>220</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2524,13 +2549,13 @@
         <v>223</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2545,7 +2570,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>65</v>
@@ -4518,125 +4543,179 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J56" s="1" t="s">
+      <c r="G57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F79" t="s">
+      <c r="K57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
         <v>66</v>
       </c>
-      <c r="G79" s="25" t="s">
+      <c r="G80" s="25" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>89</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>5</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G84" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F84" t="s">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R87" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A55:A56 A2:A52">
+  <autoFilter ref="A1:R88" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A52 A55:A57">
     <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:H64 G81:G84 I53:J54 H80:K84 G65:K79 J64:K64 G85:K1048576 L34:R51 L54:R1048576 G55:K63 G34:K52 G1:R33">
+  <conditionalFormatting sqref="G65:H65 G82:G85 I53:J54 H81:K85 G66:K80 J65:K65 G86:K1048576 L34:R51 L54:R55 G55:K55 G34:K52 G1:R33 G57:K64 L57:R1048576 G56:R56">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
@@ -4681,7 +4760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:J54 L34:R51 L54:R55 G55:K56 G34:K52 G8:R33">
+  <conditionalFormatting sqref="I53:J54 L34:R51 L54:R55 G55:K55 G34:K52 G8:R33 G57:K57 G56:R56">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4692,14 +4771,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A56" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$80:$A$83</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A57" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$81:$A$84</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F56" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$79:$F$87</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F57" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$80:$F$88</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L34:R55 G34:K56 G2:R33" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$80:$G$85</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R33 G34:K57 L34:R56" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$81:$G$86</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4710,10 +4789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4784,73 +4863,73 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -4860,95 +4939,93 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>87</v>
-      </c>
       <c r="B12" s="24" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>7</v>
@@ -4960,21 +5037,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>87</v>
+    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>118</v>
@@ -4985,10 +5062,10 @@
         <v>98</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>7</v>
@@ -5000,15 +5077,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>7</v>
@@ -5020,74 +5097,134 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B17" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="F18" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>89</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14:A15 A2:A11">
+  <conditionalFormatting sqref="A18 A2:A15">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F15">
+  <conditionalFormatting sqref="F2:F18">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -5099,14 +5236,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E15" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
-      <formula1>$D$33:$D$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E18" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+      <formula1>$D$36:$D$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
-      <formula1>$A$33:$A$36</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A18" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+      <formula1>$A$36:$A$39</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
-      <formula1>$F$33:$F$35</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+      <formula1>$F$36:$F$38</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E2C8C-5FC1-4879-810D-2A12A3AAA5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D956F9BE-6542-47C9-AB6A-60FC1F0BA0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="3555" yWindow="1950" windowWidth="20775" windowHeight="18075" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="233">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -1536,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -4791,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,24 +4823,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>116</v>
+      <c r="F2" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4918,7 +4918,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4934,9 +4934,11 @@
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D956F9BE-6542-47C9-AB6A-60FC1F0BA0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC73F59-62CA-46D2-9F50-8E0C72E759EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1950" windowWidth="20775" windowHeight="18075" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,7 +3015,7 @@
         <v>92</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>65</v>
@@ -3449,7 +3449,7 @@
         <v>91</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>65</v>
@@ -4791,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4918,7 +4918,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4938,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC73F59-62CA-46D2-9F50-8E0C72E759EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8E26C-B977-451F-9CBD-7E65F6A063D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1078,14 +1078,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1536,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -1615,7 +1608,7 @@
       <c r="A2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -1671,7 +1664,7 @@
       <c r="A3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="24"/>
@@ -1725,7 +1718,7 @@
       <c r="A4" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>144</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -1781,7 +1774,7 @@
       <c r="A5" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="24"/>
@@ -1891,23 +1884,23 @@
       <c r="A7" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>10</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="33" t="s">
+      <c r="G7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>91</v>
       </c>
       <c r="I7" s="23" t="s">
@@ -2379,7 +2372,7 @@
       <c r="A16" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -3149,7 +3142,7 @@
       <c r="A30" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -3164,7 +3157,7 @@
       <c r="F30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="28" t="s">
         <v>92</v>
       </c>
       <c r="H30" s="23" t="s">
@@ -3851,7 +3844,7 @@
       <c r="A43" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="24"/>
@@ -4791,8 +4784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,10 +4986,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -5275,20 +5268,20 @@
   <sheetData>
     <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5629,20 +5622,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5686,21 +5679,21 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -5737,21 +5730,21 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5822,21 +5815,21 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -5890,21 +5883,21 @@
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8E26C-B977-451F-9CBD-7E65F6A063D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB1D7F-966D-4211-9EEB-C7C85E077030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1910,7 @@
         <v>92</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>65</v>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB1D7F-966D-4211-9EEB-C7C85E077030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC3073F-3BFB-47C8-9B51-85F087539E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2344,7 @@
         <v>154</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>65</v>
@@ -2676,7 +2676,7 @@
         <v>91</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>65</v>
@@ -4784,8 +4784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4873,7 +4873,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4969,7 +4969,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102730451\Desktop\udrjkdf\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC3073F-3BFB-47C8-9B51-85F087539E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7902640-AFF1-4C21-B432-F01F861D8CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1529,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,7 +3962,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>91</v>
@@ -3978,7 +3977,7 @@
         <v>91</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>65</v>
@@ -4784,7 +4783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102730451\Desktop\udrjkdf\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7902640-AFF1-4C21-B432-F01F861D8CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049ED14C-9C50-45CB-9025-CEEE85B5360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3763,7 +3763,7 @@
         <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>65</v>
@@ -4028,10 +4028,10 @@
         <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>65</v>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102730451\Desktop\udrjkdf\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049ED14C-9C50-45CB-9025-CEEE85B5360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4421AA1E-5662-4B66-A42E-36CED2E0CABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="244">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -841,6 +841,39 @@
   </si>
   <si>
     <t>Add left or right option for where they can come in from for extra dynamics</t>
+  </si>
+  <si>
+    <t>Continue working on sountrack for act 2 and act 3</t>
+  </si>
+  <si>
+    <t>Finshed level selector function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue developing act 2 and act 3 level implementation, </t>
+  </si>
+  <si>
+    <t>Work on backstage room for act 3 levels where the breakout occurs</t>
+  </si>
+  <si>
+    <t>Create a breakable wall asset or 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushed act changes, refining bugs, fixing stuff on the list. Act changes and transitions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI buttons done, need to upload them. Continue working on props. Start on act 2 backdrop. </t>
+  </si>
+  <si>
+    <t>Create script for making stage tile drop out and reveal the water underneath</t>
+  </si>
+  <si>
+    <t>Fix the snapping glitch when walking down grid lines, created the clairvoyant grid, but it slows down the game too hard, trying to use a shadow effect to replicate the grid on raised z-axis. Fixing climbing IK. Scrap the climbing mechanic (refer to the prod doc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrap climbing system </t>
+  </si>
+  <si>
+    <t>Can't climb any more, holding grab button in air will hold puppet in vertical position infinitely, allowing them to swing, reintroduce the curved base while holding in air. As an extra thing, pressing grab button on the ground will have no effect, only if puppet is in the air.</t>
   </si>
 </sst>
 </file>
@@ -1526,28 +1559,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="18" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -1603,260 +1636,254 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="24">
-        <v>8</v>
-      </c>
-      <c r="E2" s="24">
-        <v>9</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="B3" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="29">
+        <v>10</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>91</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="25" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24">
-        <v>1</v>
-      </c>
-      <c r="E5" s="24">
-        <v>1</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="L6" s="1" t="s">
         <v>65</v>
       </c>
@@ -1879,69 +1906,69 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="29">
-        <v>10</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
@@ -1951,7 +1978,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>92</v>
@@ -1963,7 +1990,7 @@
         <v>92</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>65</v>
@@ -1987,15 +2014,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
@@ -2005,7 +2032,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>92</v>
@@ -2017,7 +2044,7 @@
         <v>92</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>65</v>
@@ -2041,15 +2068,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3">
         <v>4</v>
@@ -2059,19 +2086,19 @@
         <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>65</v>
@@ -2095,391 +2122,395 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
       <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="24">
+        <v>8</v>
+      </c>
+      <c r="E12" s="24">
+        <v>9</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="25" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="24">
+        <v>6</v>
+      </c>
+      <c r="E16" s="24">
+        <v>2</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="G16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="B17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="23">
+        <v>5</v>
+      </c>
+      <c r="E17" s="23">
+        <v>6.5</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="23">
-        <v>5</v>
-      </c>
-      <c r="E16" s="23">
-        <v>6.5</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" s="23" t="s">
+      <c r="J17" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="K17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
@@ -2533,7 +2564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
@@ -2589,7 +2620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -2645,7 +2676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2699,77 +2730,77 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="B22" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="26">
         <v>1</v>
       </c>
-      <c r="E22" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="23" t="s">
+      <c r="E22" s="26">
+        <v>2</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="25" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D23" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="23">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>18</v>
@@ -2781,7 +2812,7 @@
         <v>91</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J23" s="23" t="s">
         <v>94</v>
@@ -2811,18 +2842,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D24" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="23">
         <v>3</v>
@@ -2867,88 +2898,90 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:18" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="23">
+        <v>3</v>
+      </c>
+      <c r="E25" s="23">
+        <v>3</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="D26" s="1">
         <v>12</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>65</v>
@@ -2975,39 +3008,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>65</v>
@@ -3031,20 +3062,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>91</v>
@@ -3056,10 +3091,10 @@
         <v>91</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>65</v>
@@ -3083,186 +3118,184 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="G30" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B31" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D31" s="23">
         <v>0.5</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E31" s="23">
         <v>0.5</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F31" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="23" t="s">
+      <c r="G31" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I31" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q30" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R30" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>91</v>
@@ -3271,10 +3304,10 @@
         <v>91</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>65</v>
@@ -3301,77 +3334,77 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="21" t="s">
-        <v>76</v>
-      </c>
       <c r="G34" s="1" t="s">
         <v>91</v>
       </c>
@@ -3382,7 +3415,7 @@
         <v>91</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>65</v>
@@ -3409,24 +3442,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="21" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>91</v>
@@ -3438,7 +3469,7 @@
         <v>91</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>154</v>
@@ -3465,22 +3496,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="D36" s="1">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
       <c r="F36" s="21" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>91</v>
@@ -3489,13 +3522,13 @@
         <v>91</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>65</v>
@@ -3519,20 +3552,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="21" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>91</v>
@@ -3541,13 +3576,13 @@
         <v>91</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>65</v>
@@ -3571,34 +3606,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="1">
         <v>4</v>
       </c>
+      <c r="C38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>7</v>
+      <c r="F38" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>65</v>
@@ -3625,39 +3658,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>65</v>
@@ -3681,20 +3712,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
@@ -3708,10 +3741,10 @@
         <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>65</v>
@@ -3735,14 +3768,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D41" s="1">
         <v>4</v>
       </c>
@@ -3763,7 +3798,7 @@
         <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>65</v>
@@ -3787,143 +3822,141 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N42" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O42" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P42" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q42" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R42" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="G43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B44" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="23">
+      <c r="C44" s="24"/>
+      <c r="D44" s="23">
         <v>0.5</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E44" s="23">
         <v>0.5</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="23" t="s">
+      <c r="G44" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I44" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K43" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>92</v>
+      <c r="J44" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>65</v>
@@ -3947,18 +3980,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
@@ -3971,13 +4004,13 @@
         <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>65</v>
@@ -4001,22 +4034,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>91</v>
@@ -4028,10 +4061,10 @@
         <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>65</v>
@@ -4055,20 +4088,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>91</v>
@@ -4077,14 +4112,14 @@
         <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="L47" s="1" t="s">
         <v>65</v>
       </c>
@@ -4107,16 +4142,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="1">
         <v>2</v>
       </c>
@@ -4161,22 +4194,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>91</v>
@@ -4185,13 +4218,13 @@
         <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>65</v>
@@ -4215,20 +4248,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>91</v>
@@ -4240,10 +4275,10 @@
         <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>65</v>
@@ -4267,20 +4302,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>91</v>
@@ -4319,90 +4354,88 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L52" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="M52" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="N52" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="O52" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="P52" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q52" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="R52" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="24">
-        <v>3</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="24" t="s">
+      <c r="G53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K53" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L53" s="24" t="s">
@@ -4427,18 +4460,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D54" s="24">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24" t="s">
@@ -4459,58 +4492,58 @@
       <c r="K54" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="L54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="B55" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="24">
         <v>0.5</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
+      <c r="E55" s="24"/>
+      <c r="F55" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="G55" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="24" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K55" s="24" t="s">
         <v>65</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -4535,22 +4568,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>91</v>
@@ -4589,140 +4622,194 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" t="s">
+      <c r="G58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
         <v>66</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G81" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>98</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>7</v>
       </c>
-      <c r="G81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="G82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>18</v>
       </c>
-      <c r="G82" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="G83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>22</v>
       </c>
-      <c r="G83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="G84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>5</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F85" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
         <v>76</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G86" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F86" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
         <v>33</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G87" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F87" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F88" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R88" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A52 A55:A57">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+  <autoFilter ref="A1:R89" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A56:A58 A2:A53">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:H65 G82:G85 I53:J54 H81:K85 G66:K80 J65:K65 G86:K1048576 L34:R51 L54:R55 G55:K55 G34:K52 G1:R33 G57:K64 L57:R1048576 G56:R56">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="G66:H66 G83:G86 I54:J55 H82:K86 G67:K81 J66:K66 G87:K1048576 L35:R52 L55:R56 G56:K56 G35:K53 G58:K65 L58:R1048576 G57:R57 G1:R34">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="B31">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4731,19 +4818,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B30)))</formula>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:R7">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="G12:R15 G3:R3 I16:R16">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4752,8 +4839,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:J54 L34:R51 L54:R55 G55:K55 G34:K52 G8:R33 G57:K57 G56:R56">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="J22:K22 I54:J55 L35:R52 L55:R56 G56:K56 G35:K53 G58:K58 G57:R57 G4:R11 G17:R21 G2:R2 G23:R34">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:R3">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4763,14 +4860,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A57" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$81:$A$84</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G35:K58 G2:R34 L35:R57" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$82:$G$87</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F57" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$80:$F$88</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A58" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$82:$A$85</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R33 G34:K57 L34:R56" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$81:$G$86</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F58" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$81:$F$89</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4783,19 +4880,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -4815,7 +4912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>98</v>
       </c>
@@ -4835,7 +4932,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -4855,7 +4952,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -4875,7 +4972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -4893,7 +4990,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -4913,7 +5010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -4933,7 +5030,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -4951,7 +5048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
@@ -4968,10 +5065,10 @@
         <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -4991,7 +5088,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -5011,7 +5108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -5031,7 +5128,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -5051,7 +5148,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -5071,7 +5168,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -5091,7 +5188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>87</v>
       </c>
@@ -5111,7 +5208,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>87</v>
       </c>
@@ -5131,7 +5228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>87</v>
       </c>
@@ -5151,7 +5248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -5162,7 +5259,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -5173,7 +5270,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -5184,7 +5281,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -5192,22 +5289,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>69</v>
       </c>
@@ -5248,24 +5345,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="12" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="13" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="12"/>
+    <col min="1" max="1" width="24.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="12" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="13" customWidth="1"/>
+    <col min="7" max="11" width="17.88671875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="31" t="s">
         <v>36</v>
@@ -5282,7 +5379,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -5323,7 +5420,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
@@ -5339,7 +5436,9 @@
       <c r="E3" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -5348,7 +5447,7 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
@@ -5364,7 +5463,9 @@
       <c r="E4" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -5373,7 +5474,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -5389,7 +5490,9 @@
       <c r="E5" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>237</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -5398,7 +5501,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
@@ -5414,7 +5517,9 @@
       <c r="E6" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>233</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -5423,7 +5528,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>76</v>
       </c>
@@ -5439,7 +5544,9 @@
       <c r="E7" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>236</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -5448,7 +5555,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -5464,7 +5571,9 @@
       <c r="E8" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>239</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5473,7 +5582,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -5489,7 +5598,9 @@
       <c r="E9" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -5498,7 +5609,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>69</v>
       </c>
@@ -5514,7 +5625,9 @@
       <c r="E10" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>235</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -5523,7 +5636,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>66</v>
       </c>
@@ -5539,7 +5652,9 @@
       <c r="E11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -5565,24 +5680,24 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>212</v>
       </c>
@@ -5600,7 +5715,7 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5614,12 +5729,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="31" t="s">
         <v>36</v>
@@ -5636,7 +5751,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -5677,7 +5792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>50</v>
       </c>
@@ -5694,7 +5809,7 @@
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -5711,7 +5826,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -5728,7 +5843,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>53</v>
       </c>
@@ -5745,7 +5860,7 @@
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -5762,7 +5877,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -5779,7 +5894,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -5796,7 +5911,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -5813,7 +5928,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>58</v>
       </c>
@@ -5830,7 +5945,7 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>59</v>
       </c>
@@ -5847,7 +5962,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -5864,7 +5979,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -5881,7 +5996,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>62</v>
       </c>
@@ -5898,7 +6013,7 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -5915,7 +6030,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>64</v>
       </c>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4421AA1E-5662-4B66-A42E-36CED2E0CABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C14D2F-FE90-4D77-A1BD-CE996A50CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="244">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -726,9 +726,6 @@
     <t>Working on fixing a bug which involves movement issues, still working on making edge snapping more tolerant, slingshotting mechanic</t>
   </si>
   <si>
-    <t>Make a clairvoyant mini grid around the characters</t>
-  </si>
-  <si>
     <t>Displays the grid lines wherever they are even if raised in the y axis</t>
   </si>
   <si>
@@ -874,6 +871,9 @@
   </si>
   <si>
     <t>Can't climb any more, holding grab button in air will hold puppet in vertical position infinitely, allowing them to swing, reintroduce the curved base while holding in air. As an extra thing, pressing grab button on the ground will have no effect, only if puppet is in the air.</t>
+  </si>
+  <si>
+    <t>Make the magic shadow grid which renders on every level of the y axis</t>
   </si>
 </sst>
 </file>
@@ -1559,28 +1559,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="18" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -1636,15 +1636,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -1690,15 +1690,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="29">
         <v>10</v>
@@ -1744,7 +1744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>98</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>98</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="25" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="25" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>98</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>98</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>98</v>
       </c>
@@ -2510,15 +2510,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -2537,10 +2537,10 @@
         <v>91</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>65</v>
@@ -2564,15 +2564,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -2620,71 +2620,71 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="24">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="24">
         <v>0.5</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>91</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>154</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -2730,7 +2730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>87</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="25" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>87</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>87</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>87</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>124</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" s="1">
         <v>12</v>
@@ -3008,7 +3008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>87</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -3442,69 +3442,69 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="24">
         <v>1</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="21" t="s">
+      <c r="E35" s="24"/>
+      <c r="F35" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="G35" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="24" t="s">
         <v>91</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>213</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>214</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>88</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>89</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>89</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
@@ -4622,15 +4622,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -4676,7 +4676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -4708,108 +4708,129 @@
       <c r="K58" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
       <c r="F81" t="s">
-        <v>66</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F89" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R89" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A56:A58 A2:A53">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+  <autoFilter ref="A1:R88" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A2:A19 A36:A53 A21:A34 A56:A58">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:H66 G83:G86 I54:J55 H82:K86 G67:K81 J66:K66 G87:K1048576 L35:R52 L55:R56 G56:K56 G35:K53 G58:K65 L58:R1048576 G57:R57 G1:R34">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="G65:H65 G82:G85 I54:J55 H81:K85 G66:K80 J65:K65 G86:K1048576 L36:R52 L55:R56 G56:K56 G36:K53 G1:R19 J35:K35 G21:R34 J20:K20 L59:R1048576 G59:K64 G57:R58">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4819,28 +4840,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:R15 G3:R3 I16:R16">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22 I54:J55 L35:R52 L55:R56 G56:K56 G35:K53 G58:K58 G57:R57 G4:R11 G17:R21 G2:R2 G23:R34">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4850,6 +4861,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:R58">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4859,15 +4880,25 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J22:K22 I54:J55 L36:R52 L55:R56 G56:K56 G36:K53 G4:R11 G17:R19 G2:R2 G23:R34 J35:K35 G21:R21 J20:K20 G57:R57">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G35:K58 G2:R34 L35:R57" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$82:$G$87</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R58" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$81:$G$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A58" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$82:$A$85</formula1>
+      <formula1>$A$81:$A$84</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F58" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$81:$F$89</formula1>
+      <formula1>$F$80:$F$88</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4884,15 +4915,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="48.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -4912,15 +4943,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>215</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>216</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>7</v>
@@ -4932,15 +4963,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -4952,7 +4983,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -4972,7 +5003,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -4990,15 +5021,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -5010,15 +5041,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -5030,7 +5061,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -5048,7 +5079,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
@@ -5068,7 +5099,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -5088,15 +5119,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
@@ -5108,7 +5139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -5128,7 +5159,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -5148,7 +5179,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -5168,7 +5199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -5188,7 +5219,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>87</v>
       </c>
@@ -5208,7 +5239,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>87</v>
       </c>
@@ -5228,15 +5259,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>206</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>207</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>7</v>
@@ -5248,7 +5279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -5259,7 +5290,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -5270,7 +5301,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -5281,7 +5312,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -5289,22 +5320,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>69</v>
       </c>
@@ -5349,20 +5380,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="12" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="13" customWidth="1"/>
-    <col min="7" max="11" width="17.88671875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="24.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="12" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="13" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="31" t="s">
         <v>36</v>
@@ -5379,7 +5410,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -5420,7 +5451,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
@@ -5437,7 +5468,7 @@
         <v>193</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -5447,7 +5478,7 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
@@ -5461,10 +5492,10 @@
         <v>171</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -5474,7 +5505,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -5491,7 +5522,7 @@
         <v>191</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -5501,7 +5532,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
@@ -5515,10 +5546,10 @@
         <v>135</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -5528,7 +5559,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>76</v>
       </c>
@@ -5542,10 +5573,10 @@
         <v>128</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -5555,7 +5586,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -5566,13 +5597,13 @@
         <v>72</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -5582,7 +5613,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -5593,13 +5624,13 @@
         <v>70</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -5609,7 +5640,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>69</v>
       </c>
@@ -5623,10 +5654,10 @@
         <v>192</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -5636,7 +5667,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>66</v>
       </c>
@@ -5653,7 +5684,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -5680,26 +5711,26 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5715,7 +5746,7 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5729,12 +5760,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="31" t="s">
         <v>36</v>
@@ -5751,7 +5782,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -5792,7 +5823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>50</v>
       </c>
@@ -5809,7 +5840,7 @@
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -5826,7 +5857,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -5843,7 +5874,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>53</v>
       </c>
@@ -5860,7 +5891,7 @@
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -5877,7 +5908,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -5894,7 +5925,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -5911,7 +5942,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -5928,7 +5959,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>58</v>
       </c>
@@ -5945,7 +5976,7 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>59</v>
       </c>
@@ -5962,7 +5993,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -5979,7 +6010,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -5996,7 +6027,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>62</v>
       </c>
@@ -6013,7 +6044,7 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -6030,7 +6061,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>64</v>
       </c>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C14D2F-FE90-4D77-A1BD-CE996A50CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F4C37-1E44-454E-987A-9EA9853F0C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -31,8 +31,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -142,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="282">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -768,18 +772,6 @@
     <t>Tim knows what to do</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing plan, plan what needs to be tested, iterate, </t>
-  </si>
-  <si>
-    <t>benchmark things like frames per second, structure a playtesting process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many deaths per level, time taken, data driven decisions, what was favourite levels? </t>
-  </si>
-  <si>
-    <t>Least favourite levels, etc.</t>
-  </si>
-  <si>
     <t>Add multiple directions stage props can move</t>
   </si>
   <si>
@@ -792,9 +784,6 @@
     <t>String hook position moves, but upon dying, it does not move back, also lever doesn’t seem to reset</t>
   </si>
   <si>
-    <t>Lever positioning a bit sketch</t>
-  </si>
-  <si>
     <t>On level with two levers which move you between the two houses still pretty sure the blue lever should move the red puppet and the red lever should move the blue puppet, also suffers from same issue above, also also, levers are a bit hard to acces due to being on that slightly lowered hedge, consider widening the building roof and just putting them next to the players</t>
   </si>
   <si>
@@ -816,9 +805,6 @@
     <t>Consider using slower flicker script for stage lights</t>
   </si>
   <si>
-    <t>Use the script Dylan made for the into screen, currently light flicker is too fast and random</t>
-  </si>
-  <si>
     <t>Collider is like a pentagon hexagon thing, we should aim for a cylinder if possible.</t>
   </si>
   <si>
@@ -874,6 +860,138 @@
   </si>
   <si>
     <t>Make the magic shadow grid which renders on every level of the y axis</t>
+  </si>
+  <si>
+    <t>On level 4 pulling the lever can knock you off the rock</t>
+  </si>
+  <si>
+    <t>Lever positioning a bit sketch, see above as well</t>
+  </si>
+  <si>
+    <t>You can stand on top of where the lever used to be even after it's tilted away</t>
+  </si>
+  <si>
+    <t>This happens in a few other spots as well, we need to reconsider design of these levels as well as potentially having a look at the physics of the levers, should we always put them in front of a grid point so the pulling doesn't hit you? Also, you can knock the lever down by running into it, consider making it "spring loaded" so it returns to a straight position</t>
+  </si>
+  <si>
+    <t>Not a hug problem but worth having a look at</t>
+  </si>
+  <si>
+    <t>Put some smoke particle effects around the stage</t>
+  </si>
+  <si>
+    <t>Picture like stage fog, so keep it low and sweeping</t>
+  </si>
+  <si>
+    <t>Put some smoke particle effects coming from the fire</t>
+  </si>
+  <si>
+    <t>Make the fire more realistic</t>
+  </si>
+  <si>
+    <t>Puppets not returning to grid after death</t>
+  </si>
+  <si>
+    <t>Seems to happen if you die while grabbing something. The function them seesm to lock you on the grid but only a single line of the grid</t>
+  </si>
+  <si>
+    <t>Test Item</t>
+  </si>
+  <si>
+    <t>Acceptable</t>
+  </si>
+  <si>
+    <t>Unacceptable</t>
+  </si>
+  <si>
+    <t>Defenition of Acceptable</t>
+  </si>
+  <si>
+    <t>Qual/Quant</t>
+  </si>
+  <si>
+    <t>Qualitative</t>
+  </si>
+  <si>
+    <t>Quantitative</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>What levels do player's find most interesting/fun?</t>
+  </si>
+  <si>
+    <t>Most interesting levels are all represented in the PAX build</t>
+  </si>
+  <si>
+    <t>Act 1 Level 7 (tangling to get ontop of well)</t>
+  </si>
+  <si>
+    <t>More Data Needed</t>
+  </si>
+  <si>
+    <t>What levels do player's struggle the most on (number of deaths)?</t>
+  </si>
+  <si>
+    <t>What levels do player's struggle the most on (time taken to complete)?</t>
+  </si>
+  <si>
+    <t>Test Method</t>
+  </si>
+  <si>
+    <t>Survey conducted at playtesting events</t>
+  </si>
+  <si>
+    <t>Reporting drawn from code after playtest</t>
+  </si>
+  <si>
+    <t>What levels do player's find least interesting/fun?</t>
+  </si>
+  <si>
+    <t>Least interesting levels are not represented in the PAX build</t>
+  </si>
+  <si>
+    <t>Frame rate of the game</t>
+  </si>
+  <si>
+    <t>Doesn't drop below 30 for a period of longer than 2 seconds</t>
+  </si>
+  <si>
+    <t>Has not dropped below 30 frames over the course of the game</t>
+  </si>
+  <si>
+    <t>Load time between scenes</t>
+  </si>
+  <si>
+    <t>Load time is not greater than 5 seconds</t>
+  </si>
+  <si>
+    <t>Live monitoring during playtest sessions</t>
+  </si>
+  <si>
+    <t>Live monitoring during playtest session</t>
+  </si>
+  <si>
+    <t>Load time is less than 5 seconds</t>
+  </si>
+  <si>
+    <t>What levels do player's find the easiest (time taken to complete)?</t>
+  </si>
+  <si>
+    <t>What levels do player's find the easiest (number of deaths)?</t>
+  </si>
+  <si>
+    <t>Easiest levels are presented as the first levels of each act</t>
+  </si>
+  <si>
+    <t>Hardest levels are presented as the last level of each act (or changed if they are too hard (&gt;5 mins to complete))</t>
+  </si>
+  <si>
+    <t>Hardest levels are presented as the last level of each act (or changed if they are too hard (&gt;20 deaths to complete))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the script Dylan made for the into screen, currently light flicker is too fast and random, have turned it off to conserve performance </t>
   </si>
 </sst>
 </file>
@@ -1043,14 +1161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,39 +1208,160 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1230,6 +1466,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC4FBA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1561,78 +1837,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="24"/>
+    <col min="5" max="5" width="10.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="24" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="24" customWidth="1"/>
+    <col min="14" max="18" width="11.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1640,11 +1918,11 @@
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>242</v>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -1690,36 +1968,36 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="19">
         <v>10</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="23" t="s">
+      <c r="G3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>154</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1748,16 +2026,16 @@
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>69</v>
       </c>
@@ -1802,16 +2080,16 @@
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>69</v>
       </c>
@@ -1856,16 +2134,16 @@
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
@@ -1910,16 +2188,16 @@
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>69</v>
       </c>
@@ -1964,16 +2242,16 @@
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2018,16 +2296,16 @@
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
@@ -2072,16 +2350,16 @@
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
@@ -2126,16 +2404,16 @@
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2178,223 +2456,223 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="17">
         <v>8</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="17">
         <v>9</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="G12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="J12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="17">
         <v>0.5</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="23" t="s">
+      <c r="G13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="25" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="K13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="17">
         <v>0.5</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="G14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="K14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17">
         <v>1</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="23" t="s">
+      <c r="G15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R15" s="23" t="s">
+      <c r="K15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2402,25 +2680,25 @@
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="17">
         <v>2</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="24" t="s">
+      <c r="G16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -2432,81 +2710,81 @@
       <c r="K16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="L16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="17">
         <v>5</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="17">
         <v>6.5</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="23" t="s">
+      <c r="G17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R17" s="23" t="s">
+      <c r="K17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2514,16 +2792,18 @@
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>219</v>
+      <c r="B18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2568,11 +2848,11 @@
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>231</v>
+      <c r="B19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -2596,7 +2876,7 @@
         <v>154</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>65</v>
@@ -2621,31 +2901,31 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="17">
         <v>1</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="17">
         <v>0.5</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="24" t="s">
+      <c r="G20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>91</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -2654,25 +2934,25 @@
       <c r="K20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="R20" s="24" t="s">
+      <c r="L20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2680,10 +2960,10 @@
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D21" s="1">
@@ -2731,31 +3011,31 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="18">
         <v>1</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="18">
         <v>2</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="26" t="s">
+      <c r="G22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>91</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -2764,193 +3044,193 @@
       <c r="K22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="R22" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="L22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="26" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="17">
         <v>1</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="17">
         <v>0.5</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="23" t="s">
+      <c r="G23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R23" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="K23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="17">
         <v>4</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="17">
         <v>3</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="23" t="s">
+      <c r="G24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="K24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="17">
         <v>3</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="17">
         <v>3</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="23" t="s">
+      <c r="G25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="23" t="s">
+      <c r="K25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2958,11 +3238,11 @@
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>220</v>
+      <c r="C26" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D26" s="1">
         <v>12</v>
@@ -2984,7 +3264,7 @@
         <v>91</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>65</v>
@@ -3012,10 +3292,10 @@
       <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D27" s="1">
@@ -3038,7 +3318,7 @@
         <v>92</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>65</v>
@@ -3066,10 +3346,10 @@
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="1">
@@ -3122,10 +3402,10 @@
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1"/>
@@ -3146,7 +3426,7 @@
         <v>91</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>65</v>
@@ -3174,10 +3454,10 @@
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="1">
@@ -3187,10 +3467,10 @@
       <c r="F30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="19" t="s">
+      <c r="G30" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="27" t="s">
         <v>91</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -3200,7 +3480,7 @@
         <v>92</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>65</v>
@@ -3224,59 +3504,59 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="17">
         <v>0.5</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="17">
         <v>0.5</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R31" s="23" t="s">
+      <c r="J31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3284,10 +3564,10 @@
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="1">
@@ -3310,7 +3590,7 @@
         <v>154</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>65</v>
@@ -3338,10 +3618,10 @@
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D33" s="1">
@@ -3364,7 +3644,7 @@
         <v>92</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>65</v>
@@ -3392,10 +3672,10 @@
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="1">
@@ -3418,7 +3698,7 @@
         <v>91</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>65</v>
@@ -3443,29 +3723,29 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="17">
         <v>1</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="24" t="s">
+      <c r="G35" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="17" t="s">
         <v>91</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -3474,25 +3754,25 @@
       <c r="K35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L35" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="O35" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q35" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="R35" s="24" t="s">
+      <c r="L35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3500,11 +3780,11 @@
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>213</v>
+      <c r="B36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -3512,7 +3792,7 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -3556,17 +3836,17 @@
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="16" t="s">
         <v>138</v>
       </c>
       <c r="D37" s="1">
         <v>6</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="16" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3610,15 +3890,15 @@
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3634,7 +3914,7 @@
         <v>91</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>65</v>
@@ -3662,10 +3942,10 @@
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="1">
@@ -3688,7 +3968,7 @@
         <v>92</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>65</v>
@@ -3716,10 +3996,10 @@
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D40" s="1">
@@ -3772,10 +4052,10 @@
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="1">
@@ -3826,10 +4106,10 @@
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1">
         <v>4</v>
       </c>
@@ -3874,14 +4154,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="1">
         <v>8</v>
       </c>
@@ -3902,60 +4182,60 @@
         <v>92</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L43" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M43" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N43" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O43" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P43" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q43" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R43" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="23">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17">
         <v>0.5</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="17">
         <v>0.5</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="23" t="s">
+      <c r="G44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="23" t="s">
+      <c r="I44" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J44" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K44" s="23" t="s">
+      <c r="J44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L44" s="1" t="s">
@@ -3984,10 +4264,10 @@
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D45" s="1">
@@ -4038,10 +4318,10 @@
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="1">
@@ -4092,10 +4372,10 @@
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="1">
@@ -4142,109 +4422,109 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="1">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17">
         <v>2</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
+      <c r="E48" s="17"/>
+      <c r="F48" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>154</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R48" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="17">
         <v>2</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
+      <c r="E49" s="17"/>
+      <c r="F49" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>154</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R49" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4252,10 +4532,10 @@
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D50" s="1">
@@ -4306,10 +4586,10 @@
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="1">
         <v>1</v>
       </c>
@@ -4327,10 +4607,10 @@
         <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>65</v>
@@ -4358,10 +4638,10 @@
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="1">
         <v>6</v>
       </c>
@@ -4379,10 +4659,10 @@
         <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>65</v>
@@ -4410,10 +4690,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D53" s="1">
@@ -4436,51 +4716,51 @@
         <v>92</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="N53" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="O53" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="P53" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q53" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="R53" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="17">
         <v>3</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="24" t="s">
+      <c r="G54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -4489,52 +4769,52 @@
       <c r="J54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K54" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="N54" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="O54" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="P54" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q54" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="R54" s="24" t="s">
+      <c r="K54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="17">
         <v>0.5</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24" t="s">
+      <c r="E55" s="17"/>
+      <c r="F55" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="24" t="s">
+      <c r="G55" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -4543,7 +4823,7 @@
       <c r="J55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K55" s="24" t="s">
+      <c r="K55" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -4569,71 +4849,71 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="17">
         <v>0.5</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
+      <c r="E56" s="17"/>
+      <c r="F56" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="G56" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="17" t="s">
         <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R56" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>224</v>
+      <c r="B57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
@@ -4652,7 +4932,7 @@
         <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>65</v>
@@ -4680,11 +4960,11 @@
       <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>221</v>
+      <c r="C58" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -4706,7 +4986,7 @@
         <v>92</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>65</v>
@@ -4730,107 +5010,215 @@
         <v>65</v>
       </c>
     </row>
+    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" t="s">
+      <c r="F80" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="26" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F85" t="s">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F85" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F86" t="s">
+      <c r="F86" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F87" t="s">
+      <c r="F87" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F88" t="s">
+      <c r="F88" s="24" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R88" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A19 A36:A53 A21:A34 A56:A58">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+  <conditionalFormatting sqref="A2:A19 A36:A47 A21:A34 A50:A53 A57:A60">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:H65 G82:G85 I54:J55 H81:K85 G66:K80 J65:K65 G86:K1048576 L36:R52 L55:R56 G56:K56 G36:K53 G1:R19 J35:K35 G21:R34 J20:K20 L59:R1048576 G59:K64 G57:R58">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+  <conditionalFormatting sqref="G65:H65 G82:G85 I54:J55 H81:K85 G66:K80 J65:K65 G86:K1048576 L55:R55 J56 G1:R19 J35:K35 J20:K20 L61:R1048576 G61:K64 G50:K53 L50:R52 G21:R34 G36:R47 I48:J49 G57:R60">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4840,18 +5228,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:R15 G3:R3 I16:R16">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4861,6 +5249,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:R58">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:K22 I54:J55 L55:R55 J56 G4:R11 G17:R19 G2:R2 J35:K35 G21:R21 J20:K20 G50:K53 L50:R52 G23:R34 G36:R47 I48:J49 G57:R57">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:R59">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4870,7 +5288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58:R58">
+  <conditionalFormatting sqref="G60:R60">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4880,24 +5298,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22 I54:J55 L36:R52 L55:R56 G56:K56 G36:K53 G4:R11 G17:R19 G2:R2 G23:R34 J35:K35 G21:R21 J20:K20 G57:R57">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R58" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R60" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
       <formula1>$G$81:$G$86</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A58" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A60" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
       <formula1>$A$81:$A$84</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F58" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F60" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
       <formula1>$F$80:$F$88</formula1>
     </dataValidation>
   </dataValidations>
@@ -4909,253 +5317,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="3" width="48.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="24" t="s">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>174</v>
+      <c r="B4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>113</v>
+      <c r="B5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>225</v>
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>228</v>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>120</v>
+      <c r="B8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>172</v>
+      <c r="B9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>182</v>
+      <c r="B10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5163,209 +5573,269 @@
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" s="26" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:6" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F39" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F40" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D41" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F41" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="24" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18 A2:A15">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A18:A21 A2:A15">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Unfixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E18" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
-      <formula1>$D$36:$D$43</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E21" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+      <formula1>$D$39:$D$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A18" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
-      <formula1>$A$36:$A$39</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+      <formula1>$A$39:$A$42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
-      <formula1>$F$36:$F$38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+      <formula1>$F$39:$F$41</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5376,323 +5846,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="12" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="13" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="12"/>
+    <col min="1" max="1" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="9" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="10" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="F3" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="F4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="F5" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="F9" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="F10" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="E11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5705,49 +6175,414 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B1403-352E-4AED-9F5F-27791D86941F}">
-  <dimension ref="C5:C9"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="38.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="24"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>211</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A7">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G7">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"More Data Needed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Acceptable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Unacceptable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{C5B12109-CA6D-4FE4-9267-50BF543C8E30}">
+      <formula1>$G$22:$G$24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{99B6469B-788E-40E0-BAD5-80022EAB8AD7}">
+      <formula1>$A$22:$A$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{DF54364B-EFF4-422A-B622-2602585811FE}">
+      <formula1>$E$22:$E$23</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3DEBB8-1969-4CBE-B855-486715171A1F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="38.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"More Data Needed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Acceptable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Unacceptable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{5F8011E7-BAE4-47EB-9687-2546E9EB14DC}">
+      <formula1>$E$20:$E$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{7B22E230-ECD2-44E0-8D20-32428E113850}">
+      <formula1>$A$20:$A$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{6C0D97EC-D404-4AE9-ABC2-7EDD4646D379}">
+      <formula1>$G$20:$G$22</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5757,7 +6592,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5766,317 +6601,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F4C37-1E44-454E-987A-9EA9853F0C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D12079-7176-4316-A5A4-00ACEBCF380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="287">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -992,6 +992,21 @@
   </si>
   <si>
     <t xml:space="preserve">Use the script Dylan made for the into screen, currently light flicker is too fast and random, have turned it off to conserve performance </t>
+  </si>
+  <si>
+    <t>Memory usage</t>
+  </si>
+  <si>
+    <t>Checking for consistency across hardware</t>
+  </si>
+  <si>
+    <t>Controller support</t>
+  </si>
+  <si>
+    <t>Max object limit</t>
+  </si>
+  <si>
+    <t>Think of cloth on screen, chuck eveything on screen</t>
   </si>
 </sst>
 </file>
@@ -1220,12 +1235,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1247,31 +1256,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1299,6 +1294,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1466,46 +1471,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC4FBA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1837,80 +1802,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="24"/>
-    <col min="5" max="5" width="10.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="24" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="24" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="24" customWidth="1"/>
-    <col min="14" max="18" width="11.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="22"/>
+    <col min="5" max="5" width="10.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="22" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="22" customWidth="1"/>
+    <col min="14" max="18" width="11.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1968,7 +1933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>98</v>
       </c>
@@ -2456,7 +2421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>98</v>
       </c>
@@ -2512,7 +2477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>98</v>
       </c>
@@ -2566,7 +2531,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>98</v>
       </c>
@@ -2622,7 +2587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>98</v>
       </c>
@@ -2732,7 +2697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>98</v>
       </c>
@@ -3066,7 +3031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="26" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="24" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>87</v>
       </c>
@@ -3122,7 +3087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>87</v>
       </c>
@@ -3178,7 +3143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>87</v>
       </c>
@@ -3467,10 +3432,10 @@
       <c r="F30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="27" t="s">
+      <c r="G30" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="25" t="s">
         <v>91</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -3504,7 +3469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>87</v>
       </c>
@@ -3523,7 +3488,7 @@
       <c r="F31" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="26" t="s">
         <v>92</v>
       </c>
       <c r="H31" s="17" t="s">
@@ -4154,7 +4119,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -5119,101 +5084,101 @@
       </c>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="24" t="s">
+      <c r="F80" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="G80" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F81" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="24" t="s">
+      <c r="G81" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F82" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="24" t="s">
+      <c r="G82" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F84" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="G84" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F85" s="24" t="s">
+      <c r="F85" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G85" s="24" t="s">
+      <c r="G85" s="22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="24" t="s">
+      <c r="F86" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="G86" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="24" t="s">
+      <c r="F87" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="24" t="s">
+      <c r="F88" s="22" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R88" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
   <conditionalFormatting sqref="A2:A19 A36:A47 A21:A34 A50:A53 A57:A60">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:H65 G82:G85 I54:J55 H81:K85 G66:K80 J65:K65 G86:K1048576 L55:R55 J56 G1:R19 J35:K35 J20:K20 L61:R1048576 G61:K64 G50:K53 L50:R52 G21:R34 G36:R47 I48:J49 G57:R60">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5228,13 +5193,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5319,37 +5284,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="3" width="48.85546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="3" width="48.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5609,7 +5574,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="26" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="24" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>98</v>
       </c>
@@ -5669,7 +5634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
@@ -5750,80 +5715,80 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="22" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A18:A21 A2:A15">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Unfixed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5865,20 +5830,20 @@
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6178,41 +6143,41 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="38.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="38.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6355,64 +6320,64 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="22" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="22" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="22" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G7">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"More Data Needed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Acceptable"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Unacceptable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6436,41 +6401,41 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="38.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="38.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6520,55 +6485,90 @@
         <v>250</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="22" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="22" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="A2:A7">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"More Data Needed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Acceptable"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Unacceptable"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6576,7 +6576,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{5F8011E7-BAE4-47EB-9687-2546E9EB14DC}">
       <formula1>$E$20:$E$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{7B22E230-ECD2-44E0-8D20-32428E113850}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{7B22E230-ECD2-44E0-8D20-32428E113850}">
       <formula1>$A$20:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{6C0D97EC-D404-4AE9-ABC2-7EDD4646D379}">
@@ -6602,20 +6602,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6659,21 +6659,21 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -6710,21 +6710,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -6795,21 +6795,21 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -6863,21 +6863,21 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D12079-7176-4316-A5A4-00ACEBCF380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B95B41-D78F-4E4F-B4FB-02CDF3DB7FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,12 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -146,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="290">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -1007,6 +1004,15 @@
   </si>
   <si>
     <t>Think of cloth on screen, chuck eveything on screen</t>
+  </si>
+  <si>
+    <t>Consider bringing this up with level designer Angus too</t>
+  </si>
+  <si>
+    <t>Act Change cinematic</t>
+  </si>
+  <si>
+    <t>Curtains come in, flashy lights, etc</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1262,11 +1268,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1404,6 +1413,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAF8A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4FBA9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1800,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,299 +2858,297 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="17" t="s">
+      <c r="G20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>91</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>154</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="L21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="G22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D23" s="18">
         <v>1</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E23" s="18">
         <v>2</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="G23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R22" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="24" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="17">
-        <v>1</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="24" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D24" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="17">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>18</v>
@@ -3113,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>94</v>
@@ -3143,18 +3190,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D25" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="17">
         <v>3</v>
@@ -3199,91 +3246,93 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:18" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="1">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="17">
+        <v>3</v>
+      </c>
+      <c r="E26" s="17">
+        <v>3</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="D27" s="1">
         <v>12</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>65</v>
@@ -3307,111 +3356,113 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="17">
         <v>2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="17">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R29" s="1" t="s">
+      <c r="G29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3420,181 +3471,179 @@
         <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="G31" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="17">
         <v>0.5</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>0.5</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="17" t="s">
+      <c r="G32" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I32" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>91</v>
@@ -3603,13 +3652,13 @@
         <v>91</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>65</v>
@@ -3638,233 +3687,235 @@
         <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="G35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B36" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <v>1</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="G36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R35" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="L36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="17">
         <v>1</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="17">
         <v>1</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F37" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="G37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="1">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>91</v>
@@ -3873,13 +3924,13 @@
         <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>65</v>
@@ -3903,34 +3954,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="1">
         <v>4</v>
       </c>
+      <c r="C39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>7</v>
+      <c r="F39" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>92</v>
@@ -3962,119 +4011,121 @@
         <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="17">
         <v>2</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="17">
         <v>1</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="G41" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="L41" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D42" s="1">
         <v>4</v>
       </c>
@@ -4095,10 +4146,10 @@
         <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>65</v>
@@ -4119,143 +4170,141 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="G44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B45" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17">
         <v>0.5</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>0.5</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="17" t="s">
+      <c r="G45" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I45" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J44" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>92</v>
+      <c r="J45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>65</v>
@@ -4279,18 +4328,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
@@ -4303,16 +4352,16 @@
         <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>65</v>
@@ -4333,109 +4382,111 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D47" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K47" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17">
-        <v>2</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R48" s="17" t="s">
+      <c r="L48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R48" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4444,11 +4495,9 @@
         <v>89</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>132</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="17">
         <v>2</v>
       </c>
@@ -4493,74 +4542,76 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="B50" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="17">
+        <v>2</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R50" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>91</v>
@@ -4578,7 +4629,7 @@
         <v>91</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>65</v>
@@ -4604,15 +4655,15 @@
         <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>91</v>
@@ -4651,94 +4702,92 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M53" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N53" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P53" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q53" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R53" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="17">
-        <v>3</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="17" t="s">
+      <c r="G54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L54" s="17" t="s">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="M54" s="17" t="s">
         <v>65</v>
@@ -4759,18 +4808,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D55" s="17">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17" t="s">
@@ -4791,37 +4840,37 @@
       <c r="K55" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L55" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M55" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O55" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q55" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R55" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17">
         <v>0.5</v>
@@ -4836,8 +4885,8 @@
       <c r="H56" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I56" s="17" t="s">
-        <v>91</v>
+      <c r="I56" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>94</v>
@@ -4845,98 +4894,98 @@
       <c r="K56" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R56" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="L56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="B57" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="17" t="s">
         <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R57" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="1">
         <v>2</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>91</v>
@@ -4948,13 +4997,13 @@
         <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>65</v>
@@ -4975,22 +5024,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>91</v>
@@ -5002,10 +5051,10 @@
         <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>65</v>
@@ -5034,10 +5083,10 @@
         <v>89</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -5083,107 +5132,161 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="22" t="s">
+    <row r="61" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G81" s="24" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F85" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G85" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F85" s="22" t="s">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F86" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G85" s="22" t="s">
+      <c r="G86" s="22" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F87" s="22" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F88" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="22" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R88" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A2:A19 A36:A47 A21:A34 A50:A53 A57:A60">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+  <autoFilter ref="A1:R89" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A37:A48 A22:A35 A51:A54 A58:A61 A2:A20">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:H65 G82:G85 I54:J55 H81:K85 G66:K80 J65:K65 G86:K1048576 L55:R55 J56 G1:R19 J35:K35 J20:K20 L61:R1048576 G61:K64 G50:K53 L50:R52 G21:R34 G36:R47 I48:J49 G57:R60">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+  <conditionalFormatting sqref="G66:H66 G83:G86 I55:J56 H82:K86 G67:K81 J66:K66 G87:K1048576 L56:R56 J57 J36:K36 J21:K21 L62:R1048576 G62:K65 G51:K54 L51:R53 G22:R35 G37:R48 I49:J50 G58:R61 G1:R20">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="B32">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5192,19 +5295,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B31)))</formula>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:R15 G3:R3 I16:R16">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5214,27 +5317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58:R58">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22 I54:J55 L55:R55 J56 G4:R11 G17:R19 G2:R2 J35:K35 G21:R21 J20:K20 G50:K53 L50:R52 G23:R34 G36:R47 I48:J49 G57:R57">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5244,7 +5327,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:R59">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:K23 I55:J56 L56:R56 J57 G4:R11 G2:R2 J36:K36 G22:R22 J21:K21 G51:K54 L51:R53 G24:R35 G37:R48 I49:J50 G58:R58 G17:R20">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5254,7 +5347,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:R60">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61:R61">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"Done (Needs Review)"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"Done (Needs Testing)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5264,14 +5391,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R60" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$81:$G$86</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R61" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$82:$G$87</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A60" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$81:$A$84</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A61" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$82:$A$85</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F60" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$80:$F$88</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F61" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$81:$F$89</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5282,10 +5409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5295,10 +5422,11 @@
     <col min="4" max="4" width="14.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="22"/>
+    <col min="7" max="7" width="21.5703125" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
@@ -5318,7 +5446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5338,7 +5466,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -5355,10 +5483,10 @@
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -5375,10 +5503,13 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -5398,7 +5529,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -5416,7 +5547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -5434,7 +5565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -5454,27 +5585,27 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F9" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -5494,7 +5625,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -5514,7 +5645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -5534,7 +5665,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -5554,7 +5685,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -5574,7 +5705,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="24" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>98</v>
       </c>
@@ -5594,7 +5725,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>87</v>
       </c>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennys\Documents\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B95B41-D78F-4E4F-B4FB-02CDF3DB7FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527C5E9-C3C4-4772-B35C-F7347FB54145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1262,14 +1262,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,7 +3851,7 @@
       <c r="B37" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="27" t="s">
         <v>209</v>
       </c>
       <c r="D37" s="17">
@@ -3860,7 +3860,7 @@
       <c r="E37" s="17">
         <v>1</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="17" t="s">
@@ -4730,7 +4730,7 @@
         <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>65</v>
@@ -5961,20 +5961,20 @@
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6733,20 +6733,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6790,21 +6790,21 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -6841,21 +6841,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -6926,21 +6926,21 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -6994,21 +6994,21 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennys\Documents\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527C5E9-C3C4-4772-B35C-F7347FB54145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB21360-5E32-4E0D-9859-752512FEFD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,7 +5412,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,23 +5466,23 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="17" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB21360-5E32-4E0D-9859-752512FEFD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927E76C6-593F-4E5D-8ECD-E78BCD4D0F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="292">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -1013,6 +1013,12 @@
   </si>
   <si>
     <t>Curtains come in, flashy lights, etc</t>
+  </si>
+  <si>
+    <t>Inconsistant tangle changes when jumping over</t>
+  </si>
+  <si>
+    <t>Jumping over the other puppet while tangled provides somewhat inconsistant results, sometimes it updates the tangle by 1, other times it doesn't, leading to strange tangling behavior.</t>
   </si>
 </sst>
 </file>
@@ -1851,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,10 +5415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5585,64 +5591,64 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:7" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B10" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>18</v>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -5650,10 +5656,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>7</v>
@@ -5670,10 +5676,10 @@
         <v>98</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>7</v>
@@ -5690,10 +5696,10 @@
         <v>98</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>7</v>
@@ -5706,14 +5712,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="24" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>7</v>
@@ -5721,19 +5727,19 @@
       <c r="E15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>7</v>
@@ -5741,7 +5747,7 @@
       <c r="E16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="17" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5750,16 +5756,16 @@
         <v>87</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>118</v>
@@ -5770,30 +5776,30 @@
         <v>87</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>7</v>
@@ -5801,19 +5807,19 @@
       <c r="E19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>7</v>
@@ -5825,94 +5831,114 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D40" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F40" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D41" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F41" s="22" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" s="22" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" s="22" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D46" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="22" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:A21 A2:A15">
+  <conditionalFormatting sqref="A19:A22 A2:A16">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F21">
+  <conditionalFormatting sqref="F2:F22">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -5924,14 +5950,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E21" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
-      <formula1>$D$39:$D$46</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E22" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+      <formula1>$D$40:$D$47</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
-      <formula1>$A$39:$A$42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A22" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+      <formula1>$A$40:$A$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
-      <formula1>$F$39:$F$41</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F22" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+      <formula1>$F$40:$F$42</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5942,7 +5968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927E76C6-593F-4E5D-8ECD-E78BCD4D0F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B831A2C2-25C8-4C87-B595-D6B9A507A96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="292">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -1857,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -5417,8 +5417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5566,7 +5566,9 @@
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>116</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B831A2C2-25C8-4C87-B595-D6B9A507A96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3F02CF-4EE1-4720-ACE2-9A04CC73659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="294">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -1019,6 +1019,12 @@
   </si>
   <si>
     <t>Jumping over the other puppet while tangled provides somewhat inconsistant results, sometimes it updates the tangle by 1, other times it doesn't, leading to strange tangling behavior.</t>
+  </si>
+  <si>
+    <t>Smooth line movement</t>
+  </si>
+  <si>
+    <t>Make switching lines smoother and respond to the player's predicted intentions rather than their literal inputs better</t>
   </si>
 </sst>
 </file>
@@ -1855,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,55 +4502,59 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17">
+    <row r="49" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="1">
         <v>2</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="17" t="s">
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R49" s="17" t="s">
+      <c r="M49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R49" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4553,11 +4563,9 @@
         <v>89</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>132</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="17">
         <v>2</v>
       </c>
@@ -4602,74 +4610,76 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="B51" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="17">
+        <v>2</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R51" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>91</v>
@@ -4687,7 +4697,7 @@
         <v>91</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>65</v>
@@ -4713,15 +4723,15 @@
         <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>91</v>
@@ -4736,7 +4746,7 @@
         <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>65</v>
@@ -4760,94 +4770,92 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M54" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N54" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O54" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P54" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q54" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R54" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="17">
-        <v>3</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="17" t="s">
+      <c r="G55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="M55" s="17" t="s">
         <v>65</v>
@@ -4868,18 +4876,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D56" s="17">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17" t="s">
@@ -4900,37 +4908,37 @@
       <c r="K56" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R56" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="17">
         <v>0.5</v>
@@ -4945,8 +4953,8 @@
       <c r="H57" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I57" s="17" t="s">
-        <v>91</v>
+      <c r="I57" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>94</v>
@@ -4954,98 +4962,98 @@
       <c r="K57" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R57" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="L57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="B58" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="17" t="s">
         <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R58" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" s="1">
         <v>2</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="1">
-        <v>3</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>91</v>
@@ -5057,13 +5065,13 @@
         <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>65</v>
@@ -5084,22 +5092,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>91</v>
@@ -5111,10 +5119,10 @@
         <v>91</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>65</v>
@@ -5143,10 +5151,10 @@
         <v>89</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -5192,92 +5200,146 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="22" t="s">
+    <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F82" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G81" s="24" t="s">
+      <c r="G82" s="24" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F86" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="22" t="s">
+      <c r="G86" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F86" s="22" t="s">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F87" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G86" s="22" t="s">
+      <c r="G87" s="22" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F88" s="22" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F89" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F90" s="22" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R89" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A37:A48 A22:A35 A51:A54 A58:A61 A2:A20">
+  <autoFilter ref="A1:R90" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A22:A35 A52:A55 A59:A62 A2:A20 A37:A49">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:H66 G83:G86 I55:J56 H82:K86 G67:K81 J66:K66 G87:K1048576 L56:R56 J57 J36:K36 J21:K21 L62:R1048576 G62:K65 G51:K54 L51:R53 G22:R35 G37:R48 I49:J50 G58:R61 G1:R20">
+  <conditionalFormatting sqref="G67:H67 G84:G87 I56:J57 H83:K87 G68:K82 J67:K67 G88:K1048576 L57:R57 J58 J36:K36 J21:K21 L63:R1048576 G63:K66 G52:K55 L52:R54 G22:R35 I50:J51 G59:R62 G1:R20 G37:R49">
     <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
@@ -5332,7 +5394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:R59">
+  <conditionalFormatting sqref="G60:R60">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5342,7 +5404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:K23 I55:J56 L56:R56 J57 G4:R11 G2:R2 J36:K36 G22:R22 J21:K21 G51:K54 L51:R53 G24:R35 G37:R48 I49:J50 G58:R58 G17:R20">
+  <conditionalFormatting sqref="J23:K23 I56:J57 L57:R57 J58 G4:R11 G2:R2 J36:K36 G22:R22 J21:K21 G52:K55 L52:R54 G24:R35 I50:J51 G59:R59 G17:R20 G37:R49">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5352,7 +5414,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60:R60">
+  <conditionalFormatting sqref="G61:R61">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5362,7 +5424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61:R61">
+  <conditionalFormatting sqref="G62:R62">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5372,12 +5434,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
+  <conditionalFormatting sqref="L55">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",L55)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
@@ -5386,7 +5448,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
+  <conditionalFormatting sqref="L55">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5397,14 +5459,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R61" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$82:$G$87</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R62" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$83:$G$88</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A61" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$82:$A$85</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$83:$A$86</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F61" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$81:$F$89</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F62" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$82:$F$90</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5417,7 +5479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3F02CF-4EE1-4720-ACE2-9A04CC73659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3E9BD-F1F8-4882-B869-1017A9A8E655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="296">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -1025,6 +1025,12 @@
   </si>
   <si>
     <t>Make switching lines smoother and respond to the player's predicted intentions rather than their literal inputs better</t>
+  </si>
+  <si>
+    <t>Very, very small reverse snapping when switching between some lines</t>
+  </si>
+  <si>
+    <t>So ok hear me out, we no longer have snapping, we have *reverse snapping*, it's very small and scales with the directionChangeBoost, still something to do with the order of points, I can not figure it out</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1979,7 @@
         <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>65</v>
@@ -5477,10 +5483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,64 +5681,64 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>18</v>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -5740,10 +5746,10 @@
         <v>98</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>7</v>
@@ -5760,10 +5766,10 @@
         <v>98</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>7</v>
@@ -5780,10 +5786,10 @@
         <v>98</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>7</v>
@@ -5796,14 +5802,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>7</v>
@@ -5811,19 +5817,19 @@
       <c r="E16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>7</v>
@@ -5831,7 +5837,7 @@
       <c r="E17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="17" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5840,16 +5846,16 @@
         <v>87</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>118</v>
@@ -5860,30 +5866,30 @@
         <v>87</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>7</v>
@@ -5891,19 +5897,19 @@
       <c r="E20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>7</v>
@@ -5915,94 +5921,114 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D41" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F41" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D42" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F42" s="22" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" s="22" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D46" s="22" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D47" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="22" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A19:A22 A2:A16">
+  <conditionalFormatting sqref="A20:A23 A2:A17">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F22">
+  <conditionalFormatting sqref="F2:F23">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
@@ -6014,14 +6040,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E22" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
-      <formula1>$D$40:$D$47</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E23" xr:uid="{154ECC09-7D67-45A6-90DF-1961A685E627}">
+      <formula1>$D$41:$D$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A22" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
-      <formula1>$A$40:$A$43</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A23" xr:uid="{72EC6FF7-955E-4ED7-9B0B-51830424EBF6}">
+      <formula1>$A$41:$A$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F22" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
-      <formula1>$F$40:$F$42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23" xr:uid="{F81763E8-DE35-4D24-BE53-2E916D17EE9E}">
+      <formula1>$F$41:$F$43</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3E9BD-F1F8-4882-B869-1017A9A8E655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887807F0-30A5-42E9-B810-AD7297844FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -1027,10 +1027,10 @@
     <t>Make switching lines smoother and respond to the player's predicted intentions rather than their literal inputs better</t>
   </si>
   <si>
-    <t>Very, very small reverse snapping when switching between some lines</t>
-  </si>
-  <si>
     <t>So ok hear me out, we no longer have snapping, we have *reverse snapping*, it's very small and scales with the directionChangeBoost, still something to do with the order of points, I can not figure it out</t>
+  </si>
+  <si>
+    <t>Very small reverse snapping when switching between some lines</t>
   </si>
 </sst>
 </file>
@@ -5486,7 +5486,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5600,7 +5600,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5683,13 +5683,13 @@
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887807F0-30A5-42E9-B810-AD7297844FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E62E2-F493-499E-AC15-92D35D7AE67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Gantt Chart" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Tracking'!$A$1:$R$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="308">
   <si>
     <t>Particle effects on goals</t>
   </si>
@@ -1006,9 +1006,6 @@
     <t>Think of cloth on screen, chuck eveything on screen</t>
   </si>
   <si>
-    <t>Consider bringing this up with level designer Angus too</t>
-  </si>
-  <si>
     <t>Act Change cinematic</t>
   </si>
   <si>
@@ -1031,6 +1028,45 @@
   </si>
   <si>
     <t>Very small reverse snapping when switching between some lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed snapping to junctions so it's a smaller snap. Lots of bug fixing, continuing working on scrapping climbing system, doing the grid visualisation and string visualisation. </t>
+  </si>
+  <si>
+    <t>Make slingshotting break through wall</t>
+  </si>
+  <si>
+    <t>Implement animations for the following</t>
+  </si>
+  <si>
+    <t>Swing, slingshot being pulled, slingshot pulling, hanging (pose), run out of string at limit</t>
+  </si>
+  <si>
+    <t>Victory transition bow</t>
+  </si>
+  <si>
+    <t>Do in unity timeline</t>
+  </si>
+  <si>
+    <t>Added ambient dust to stage, try and do stage fog, breakable walls, play around with particle effects. Add backgrounds to each level.</t>
+  </si>
+  <si>
+    <t>Implemented act changes, stage transitioning and cinematics. Finalising the transistions, start and end of level, end with celebration, start with UI clapper board for takes.</t>
+  </si>
+  <si>
+    <t>Continue working on soundtrack stuff, act 2 and act 3 done.</t>
+  </si>
+  <si>
+    <t>Made base model for breakable walls, worked on assignement, sarted modelling act 3 models. Tryhard the act 3 models and background</t>
+  </si>
+  <si>
+    <t>Rock HARD man. More props, finish backround for act 2. Working on production document.</t>
+  </si>
+  <si>
+    <t>Fuck all</t>
+  </si>
+  <si>
+    <t>Reformatted act 1 levels, boiled it down to 3. Implemented act 2 level 1 and 2, bulk out the levels.</t>
   </si>
 </sst>
 </file>
@@ -1867,30 +1903,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="22"/>
-    <col min="5" max="5" width="10.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="22"/>
+    <col min="5" max="5" width="10.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="22" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="22" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="22" customWidth="1"/>
-    <col min="14" max="18" width="11.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="22"/>
+    <col min="11" max="11" width="19.6640625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="22" customWidth="1"/>
+    <col min="14" max="18" width="11.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
@@ -1946,7 +1982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -2000,27 +2036,27 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>10</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I3" s="17" t="s">
@@ -2033,7 +2069,7 @@
         <v>154</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>65</v>
@@ -2054,40 +2090,40 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="19">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>65</v>
@@ -2108,40 +2144,40 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="19">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>65</v>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>65</v>
@@ -2162,40 +2198,40 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="19">
         <v>4</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>65</v>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>65</v>
@@ -2216,15 +2252,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -2246,7 +2282,7 @@
         <v>92</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>65</v>
@@ -2270,15 +2306,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -2288,7 +2324,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>92</v>
@@ -2300,7 +2336,7 @@
         <v>92</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>65</v>
@@ -2324,15 +2360,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -2342,7 +2378,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>92</v>
@@ -2354,7 +2390,7 @@
         <v>92</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>65</v>
@@ -2378,15 +2414,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -2396,19 +2432,19 @@
         <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>65</v>
@@ -2432,315 +2468,311 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D14" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E14" s="17">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="G14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="17">
-        <v>8</v>
-      </c>
-      <c r="E12" s="17">
-        <v>9</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="L14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17">
-        <v>1</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>140</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" s="17">
+        <v>8</v>
+      </c>
+      <c r="E15" s="17">
+        <v>9</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E15" s="17">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="E16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="17" t="s">
+      <c r="G16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="17">
-        <v>6</v>
-      </c>
-      <c r="E16" s="17">
-        <v>2</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>94</v>
+      <c r="K16" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>65</v>
@@ -2764,30 +2796,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="D17" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="17">
-        <v>6.5</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>7</v>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>91</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>154</v>
@@ -2820,244 +2852,244 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="17">
+        <v>6</v>
+      </c>
+      <c r="E19" s="17">
+        <v>2</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="17">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>91</v>
@@ -3075,7 +3107,7 @@
         <v>92</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>65</v>
@@ -3096,71 +3128,71 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="18">
+      <c r="B23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="18">
-        <v>2</v>
-      </c>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="18" t="s">
+      <c r="G23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>91</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>154</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R23" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="24" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
@@ -3169,280 +3201,282 @@
         <v>0.5</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="24" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="17" t="s">
+      <c r="G27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="K27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B28" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D28" s="17">
         <v>4</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E28" s="17">
         <v>3</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="G28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="17">
-        <v>3</v>
-      </c>
-      <c r="E26" s="17">
-        <v>3</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="1">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="1">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="D29" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>18</v>
@@ -3454,13 +3488,13 @@
         <v>91</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="L29" s="17" t="s">
         <v>65</v>
@@ -3484,20 +3518,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>91</v>
@@ -3536,28 +3572,28 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>91</v>
+        <v>6</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>92</v>
@@ -3590,40 +3626,40 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E32" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>92</v>
+        <v>18</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="L32" s="17" t="s">
         <v>65</v>
       </c>
@@ -3646,22 +3682,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>91</v>
@@ -3670,13 +3704,13 @@
         <v>91</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>65</v>
@@ -3700,456 +3734,456 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="G38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B39" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D39" s="17">
         <v>1</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="G39" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R36" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="L39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B40" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C40" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D40" s="17">
         <v>1</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E40" s="17">
         <v>1</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="17" t="s">
+      <c r="G40" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="L40" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="M37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R37" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="M40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D41" s="1">
         <v>6</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="16" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="17">
-        <v>2</v>
-      </c>
-      <c r="E41" s="17">
-        <v>1</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="M41" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N41" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O41" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P41" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="L41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="1">
         <v>4</v>
       </c>
+      <c r="C42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>18</v>
+      <c r="F42" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>91</v>
@@ -4164,10 +4198,10 @@
         <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>65</v>
@@ -4188,144 +4222,150 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="G44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R44" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F45" s="17" t="s">
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>65</v>
+      <c r="G45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>65</v>
@@ -4346,18 +4386,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
@@ -4370,10 +4408,10 @@
         <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>92</v>
@@ -4400,91 +4438,89 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="1">
-        <v>4</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>154</v>
+      <c r="G48" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>65</v>
@@ -4508,338 +4544,342 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="D52" s="1">
         <v>2</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E52" s="1">
         <v>2</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L49" s="1" t="s">
+      <c r="G52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="M52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B53" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17">
         <v>2</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17" t="s">
+      <c r="E53" s="17"/>
+      <c r="F53" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="G53" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R50" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="K53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B54" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D54" s="17">
         <v>2</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="G54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K51" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N51" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P51" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q51" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R51" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
@@ -4852,500 +4892,658 @@
         <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M55" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N55" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O55" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P55" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q55" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R55" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R58" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D59" s="17">
         <v>3</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17" t="s">
+      <c r="E59" s="17"/>
+      <c r="F59" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="G59" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R56" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="K59" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B60" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D60" s="17">
         <v>0.5</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17" t="s">
+      <c r="E60" s="17"/>
+      <c r="F60" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="G60" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="K60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B61" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C61" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D61" s="17">
         <v>0.5</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17" t="s">
+      <c r="E61" s="17"/>
+      <c r="F61" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="G61" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K58" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L58" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M58" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N58" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O58" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P58" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q58" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R58" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="K61" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M61" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N61" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O61" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q61" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R61" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="22" t="s">
+      <c r="G64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G82" s="24" t="s">
+      <c r="G85" s="24" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F86" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+      <c r="G86" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F87" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
+      <c r="G87" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F88" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="G88" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="22" t="s">
+      <c r="F89" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="22" t="s">
+      <c r="G89" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F87" s="22" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G87" s="22" t="s">
+      <c r="G90" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="22" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G91" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="22" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="22" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="22" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R90" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A22:A35 A52:A55 A59:A62 A2:A20 A37:A49">
+  <autoFilter ref="A1:R93" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
+  <conditionalFormatting sqref="A25:A38 A55:A58 A62:A65 A40:A52 A2:A23">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:H67 G84:G87 I56:J57 H83:K87 G68:K82 J67:K67 G88:K1048576 L57:R57 J58 J36:K36 J21:K21 L63:R1048576 G63:K66 G52:K55 L52:R54 G22:R35 I50:J51 G59:R62 G1:R20 G37:R49">
+  <conditionalFormatting sqref="G70:H70 G87:G90 I59:J60 H86:K90 G71:K85 J70:K70 G91:K1048576 L60:R60 J61 J39:K39 J24:K24 L66:R1048576 G66:K69 G55:K58 L55:R57 G25:R38 I53:J54 G62:R65 G1:R2 G40:R52 G15:R23 I14:R14 G7:R13 I3:R3 M4:R6">
     <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
@@ -5359,7 +5557,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="B35">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5369,9 +5567,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="B35">
     <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
@@ -5380,7 +5578,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:R15 G3:R3 I16:R16">
+  <conditionalFormatting sqref="G15:R18 I19:R19 I3:R3 M4:R6">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -5390,7 +5588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:R3">
+  <conditionalFormatting sqref="L3:R3 M4:R6">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5400,7 +5598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60:R60">
+  <conditionalFormatting sqref="G63:R63">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5410,7 +5608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:K23 I56:J57 L57:R57 J58 G4:R11 G2:R2 J36:K36 G22:R22 J21:K21 G52:K55 L52:R54 G24:R35 I50:J51 G59:R59 G17:R20 G37:R49">
+  <conditionalFormatting sqref="J26:K26 I59:J60 L60:R60 J61 G7:R13 G2:R2 J39:K39 G25:R25 J24:K24 G55:K58 L55:R57 G27:R38 I53:J54 G62:R62 G20:R23 G40:R52 I14:R14">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5420,7 +5618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61:R61">
+  <conditionalFormatting sqref="G64:R64">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5430,7 +5628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:R62">
+  <conditionalFormatting sqref="G65:R65">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5440,12 +5638,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
+  <conditionalFormatting sqref="L58">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",L58)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
@@ -5454,7 +5652,7 @@
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
+  <conditionalFormatting sqref="L58">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5465,14 +5663,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R62" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
-      <formula1>$G$83:$G$88</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R65" xr:uid="{74781059-03CD-4747-BF6A-E35BF8F2BF2E}">
+      <formula1>$G$86:$G$91</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
-      <formula1>$A$83:$A$86</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A65" xr:uid="{D3DB8CA4-CF09-459F-A4BC-4F324FE8B47E}">
+      <formula1>$A$86:$A$89</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F62" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
-      <formula1>$F$82:$F$90</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F65" xr:uid="{8F276E49-902F-4BBD-9E0B-A51B9A15EC6B}">
+      <formula1>$F$85:$F$93</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5483,24 +5681,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
-    <col min="2" max="3" width="48.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="22"/>
+    <col min="2" max="3" width="48.88671875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
@@ -5520,7 +5718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5540,7 +5738,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>87</v>
       </c>
@@ -5560,50 +5758,47 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -5621,7 +5816,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -5641,35 +5836,35 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -5681,15 +5876,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
@@ -5701,7 +5896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>88</v>
       </c>
@@ -5721,7 +5916,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -5741,7 +5936,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -5761,7 +5956,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -5781,7 +5976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="24" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -5801,7 +5996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -5821,7 +6016,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>98</v>
       </c>
@@ -5841,7 +6036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
@@ -5861,7 +6056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>87</v>
       </c>
@@ -5881,7 +6076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>87</v>
       </c>
@@ -5901,7 +6096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>88</v>
       </c>
@@ -5921,7 +6116,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>88</v>
       </c>
@@ -5941,7 +6136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>88</v>
       </c>
@@ -5961,7 +6156,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>98</v>
       </c>
@@ -5972,7 +6167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>87</v>
       </c>
@@ -5983,7 +6178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>88</v>
       </c>
@@ -5994,7 +6189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>89</v>
       </c>
@@ -6002,28 +6197,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D46" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D47" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D48" s="22" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A20:A23 A2:A17">
+  <conditionalFormatting sqref="A20:A23 A2:A3 A6:A7 A9:A17">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -6058,24 +6253,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="9" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="10" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="9" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="10" customWidth="1"/>
+    <col min="7" max="11" width="17.88671875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="28" t="s">
         <v>36</v>
@@ -6092,7 +6287,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -6133,7 +6328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -6152,7 +6347,9 @@
       <c r="F3" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>295</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -6160,7 +6357,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -6179,7 +6376,9 @@
       <c r="F4" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -6187,7 +6386,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -6206,7 +6405,9 @@
       <c r="F5" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>301</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -6214,7 +6415,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -6233,7 +6434,9 @@
       <c r="F6" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>303</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -6241,7 +6444,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>76</v>
       </c>
@@ -6260,7 +6463,9 @@
       <c r="F7" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>304</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -6268,7 +6473,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -6287,7 +6492,9 @@
       <c r="F8" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -6295,7 +6502,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -6314,7 +6521,9 @@
       <c r="F9" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>306</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -6322,7 +6531,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -6341,7 +6550,9 @@
       <c r="F10" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>307</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -6349,7 +6560,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
@@ -6368,7 +6579,9 @@
       <c r="F11" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -6393,19 +6606,19 @@
       <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
-    <col min="2" max="2" width="38.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="22"/>
+    <col min="2" max="2" width="38.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="22" customWidth="1"/>
     <col min="7" max="7" width="18" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="8" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
@@ -6428,7 +6641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -6451,7 +6664,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -6474,7 +6687,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -6497,7 +6710,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -6520,7 +6733,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -6543,7 +6756,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -6566,7 +6779,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>98</v>
       </c>
@@ -6577,7 +6790,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>87</v>
       </c>
@@ -6588,7 +6801,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>88</v>
       </c>
@@ -6596,7 +6809,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>89</v>
       </c>
@@ -6651,19 +6864,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
-    <col min="2" max="2" width="38.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="22"/>
+    <col min="2" max="2" width="38.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="22" customWidth="1"/>
     <col min="7" max="7" width="18" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="8" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
@@ -6686,7 +6899,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -6709,7 +6922,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -6732,7 +6945,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -6740,7 +6953,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -6751,7 +6964,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -6759,7 +6972,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -6767,7 +6980,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>98</v>
       </c>
@@ -6778,7 +6991,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>87</v>
       </c>
@@ -6789,7 +7002,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>88</v>
       </c>
@@ -6797,7 +7010,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>89</v>
       </c>
@@ -6842,12 +7055,12 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="28" t="s">
         <v>36</v>
@@ -6864,7 +7077,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -6905,7 +7118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>50</v>
       </c>
@@ -6922,7 +7135,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
@@ -6939,7 +7152,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
@@ -6956,7 +7169,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
@@ -6973,7 +7186,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -6990,7 +7203,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -7007,7 +7220,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -7024,7 +7237,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -7041,7 +7254,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>58</v>
       </c>
@@ -7058,7 +7271,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
@@ -7075,7 +7288,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
@@ -7092,7 +7305,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
@@ -7109,7 +7322,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>62</v>
       </c>
@@ -7126,7 +7339,7 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
@@ -7143,7 +7356,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>64</v>
       </c>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E62E2-F493-499E-AC15-92D35D7AE67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408515AC-FDB9-4386-9168-B37FBC3E1B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1905,28 +1905,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="22"/>
-    <col min="5" max="5" width="10.109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="22"/>
+    <col min="5" max="5" width="10.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="22" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" style="22" customWidth="1"/>
-    <col min="14" max="18" width="11.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="22"/>
+    <col min="11" max="11" width="19.7109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="22" customWidth="1"/>
+    <col min="14" max="18" width="11.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>98</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>98</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>98</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>98</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>98</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>98</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>98</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>98</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>98</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>98</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>87</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>87</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="24" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="24" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>87</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>87</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>87</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>87</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>87</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>88</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>88</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>88</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>88</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>91</v>
@@ -4652,7 +4652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>89</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>89</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>89</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>89</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>89</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>89</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>89</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>89</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F85" s="22" t="s">
         <v>66</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>98</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>87</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>88</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>89</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F90" s="22" t="s">
         <v>76</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F91" s="22" t="s">
         <v>33</v>
       </c>
@@ -5526,12 +5526,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F92" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F93" s="22" t="s">
         <v>69</v>
       </c>
@@ -5687,18 +5687,18 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="22"/>
-    <col min="2" max="3" width="48.88671875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="3" width="48.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="22"/>
+    <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>87</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>87</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>87</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>88</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>88</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="24" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="24" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>98</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>87</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>87</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>88</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>88</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>88</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>98</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>87</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>88</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>89</v>
       </c>
@@ -6197,22 +6197,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D46" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D47" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" s="22" t="s">
         <v>69</v>
       </c>
@@ -6253,24 +6253,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="9" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="10" customWidth="1"/>
-    <col min="7" max="11" width="17.88671875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="9" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="10" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="28" t="s">
         <v>36</v>
@@ -6287,7 +6287,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -6357,7 +6357,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -6444,7 +6444,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>76</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -6531,7 +6531,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
@@ -6606,19 +6606,19 @@
       <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="22"/>
-    <col min="2" max="2" width="38.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="38.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
     <col min="7" max="7" width="18" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="22"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>98</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>87</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>88</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>89</v>
       </c>
@@ -6864,19 +6864,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="22"/>
-    <col min="2" max="2" width="38.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="38.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
     <col min="7" max="7" width="18" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="22"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>98</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>87</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>88</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>89</v>
       </c>
@@ -7055,12 +7055,12 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="28" t="s">
         <v>36</v>
@@ -7077,7 +7077,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>50</v>
       </c>
@@ -7135,7 +7135,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
@@ -7169,7 +7169,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -7237,7 +7237,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -7254,7 +7254,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>58</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
@@ -7305,7 +7305,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>62</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>64</v>
       </c>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408515AC-FDB9-4386-9168-B37FBC3E1B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CBD4FB-15E9-458B-801B-FE6433531E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,8 +1122,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,6 +1165,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1233,10 +1245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1325,8 +1338,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
@@ -1905,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,8 +2139,8 @@
       <c r="K4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>91</v>
+      <c r="L4" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>65</v>
@@ -6253,8 +6270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CBD4FB-15E9-458B-801B-FE6433531E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B9E387-A512-499C-A597-C48452C83C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1332,14 +1332,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1347,6 +1347,46 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAF8A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4FBA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1551,46 +1591,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4FBA9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1922,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,7 +2139,7 @@
       <c r="K4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="28" t="s">
         <v>92</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2449,13 +2449,13 @@
         <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>92</v>
@@ -2464,7 +2464,7 @@
         <v>92</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>65</v>
@@ -2506,10 +2506,10 @@
         <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>92</v>
@@ -2518,7 +2518,7 @@
         <v>92</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>65</v>
@@ -2560,10 +2560,10 @@
         <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>92</v>
@@ -2572,7 +2572,7 @@
         <v>92</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>65</v>
@@ -3036,31 +3036,31 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="17">
         <v>3</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="17">
         <v>4</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="G21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>91</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3070,7 +3070,7 @@
         <v>154</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>65</v>
@@ -3180,7 +3180,7 @@
         <v>154</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>65</v>
@@ -3290,7 +3290,7 @@
         <v>92</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>65</v>
@@ -3568,7 +3568,7 @@
         <v>91</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>65</v>
@@ -3622,7 +3622,7 @@
         <v>92</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>65</v>
@@ -3730,7 +3730,7 @@
         <v>91</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>65</v>
@@ -3948,7 +3948,7 @@
         <v>92</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>65</v>
@@ -4002,7 +4002,7 @@
         <v>91</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>65</v>
@@ -4163,10 +4163,10 @@
         <v>92</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>65</v>
@@ -4218,7 +4218,7 @@
         <v>92</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>65</v>
@@ -4260,7 +4260,7 @@
         <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>92</v>
@@ -4272,7 +4272,7 @@
         <v>92</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>65</v>
@@ -4486,7 +4486,7 @@
         <v>92</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>65</v>
@@ -4507,7 +4507,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>88</v>
       </c>
@@ -4539,25 +4539,25 @@
       <c r="K48" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R48" s="1" t="s">
+      <c r="L48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R48" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4670,29 +4670,29 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="17">
         <v>4</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="G51" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="17" t="s">
         <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -4702,80 +4702,80 @@
         <v>154</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q51" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R51" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="17">
         <v>2</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="17">
         <v>2</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K52" s="1" t="s">
+      <c r="G52" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="17" t="s">
         <v>91</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O52" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q52" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R52" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4970,7 +4970,7 @@
         <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>65</v>
@@ -5022,7 +5022,7 @@
         <v>154</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>65</v>
@@ -5183,25 +5183,25 @@
       <c r="K60" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R60" s="1" t="s">
+      <c r="L60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R60" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>89</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>92</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>65</v>
@@ -5382,96 +5382,96 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="17">
+        <v>1</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" s="1" t="s">
+      <c r="G65" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="17" t="s">
         <v>91</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O65" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q65" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R65" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5555,22 +5555,22 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R93" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
-  <conditionalFormatting sqref="A25:A38 A55:A58 A62:A65 A40:A52 A2:A23">
+  <conditionalFormatting sqref="A25:A38 A55:A58 A62:A64 A40:A50 A2:A20 A22:A23">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:H70 G87:G90 I59:J60 H86:K90 G71:K85 J70:K70 G91:K1048576 L60:R60 J61 J39:K39 J24:K24 L66:R1048576 G66:K69 G55:K58 L55:R57 G25:R38 I53:J54 G62:R65 G1:R2 G40:R52 G15:R23 I14:R14 G7:R13 I3:R3 M4:R6">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+  <conditionalFormatting sqref="G70:H70 G87:G90 I59:J60 H86:K90 G71:K85 J70:K70 G91:K1048576 J61 J39:K39 J24:K24 G66:K69 G55:K58 L55:R57 G25:R38 I53:J54 G62:R64 G1:R2 G15:R20 I14:R14 I3:R3 M4:R6 G22:R23 J21:R21 G7:R13 G40:R50 J51:R51 L52:R52 L66:R1048576 L65">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="2" priority="20" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5585,13 +5585,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5625,7 +5625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:K26 I59:J60 L60:R60 J61 G7:R13 G2:R2 J39:K39 G25:R25 J24:K24 G55:K58 L55:R57 G27:R38 I53:J54 G62:R62 G20:R23 G40:R52 I14:R14">
+  <conditionalFormatting sqref="J26:K26 I59:J60 J61 G2:R2 J39:K39 G25:R25 J24:K24 G55:K58 L55:R57 G27:R38 I53:J54 G62:R62 G20:R20 I14:R14 G22:R23 J21:R21 G7:R13 G40:R50 J51:R51 L52:R52">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5645,7 +5645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:R65">
+  <conditionalFormatting sqref="L65">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5656,16 +5656,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5700,8 +5700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5933,7 +5933,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -6236,18 +6236,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:A23 A2:A3 A6:A7 A9:A17">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F23">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Unfixed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6289,20 +6289,20 @@
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6833,28 +6833,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G7">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"More Data Needed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Acceptable"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Unacceptable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7034,18 +7034,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"More Data Needed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Acceptable"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Unacceptable"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7079,20 +7079,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7136,21 +7136,21 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -7187,21 +7187,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -7272,21 +7272,21 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -7340,21 +7340,21 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B9E387-A512-499C-A597-C48452C83C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965035E9-76D4-48BD-A421-1D65721D8D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,15 +1122,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1165,11 +1158,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1245,11 +1233,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1332,9 +1319,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1342,11 +1326,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1591,6 +1574,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAF8A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4FBA9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1922,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2143,9 @@
       <c r="D4" s="19">
         <v>4</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="19">
+        <v>4</v>
+      </c>
       <c r="F4" s="19" t="s">
         <v>18</v>
       </c>
@@ -2139,11 +2164,11 @@
       <c r="K4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="17" t="s">
         <v>92</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>65</v>
@@ -5556,26 +5581,26 @@
   </sheetData>
   <autoFilter ref="A1:R93" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
   <conditionalFormatting sqref="A25:A38 A55:A58 A62:A64 A40:A50 A2:A20 A22:A23">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:H70 G87:G90 I59:J60 H86:K90 G71:K85 J70:K70 G91:K1048576 J61 J39:K39 J24:K24 G66:K69 G55:K58 L55:R57 G25:R38 I53:J54 G62:R64 G1:R2 G15:R20 I14:R14 I3:R3 M4:R6 G22:R23 J21:R21 G7:R13 G40:R50 J51:R51 L52:R52 L66:R1048576 L65">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="20" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5585,18 +5610,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:R18 I19:R19 I3:R3 M4:R6">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5606,7 +5631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3 M4:R6">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5616,7 +5641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:R63">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5626,7 +5651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:K26 I59:J60 J61 G2:R2 J39:K39 G25:R25 J24:K24 G55:K58 L55:R57 G27:R38 I53:J54 G62:R62 G20:R20 I14:R14 G22:R23 J21:R21 G7:R13 G40:R50 J51:R51 L52:R52">
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5636,7 +5661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:R64">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5646,7 +5671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5656,20 +5681,44 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Done (Needs Review)"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Done (Needs Testing)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5700,7 +5749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F60F0-D37C-48A6-81DA-136DEAEF3BF2}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6289,20 +6338,20 @@
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7079,20 +7128,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7136,21 +7185,21 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -7187,21 +7236,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -7272,21 +7321,21 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -7340,21 +7389,21 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Speck\git\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennys\Documents\Strung Along\strung-along\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965035E9-76D4-48BD-A421-1D65721D8D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CA9DF8-ECDF-4324-BE7E-642895EA6A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracking" sheetId="1" r:id="rId1"/>
@@ -1332,46 +1332,6 @@
   <dxfs count="30">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4FBA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1507,6 +1467,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAF8A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4FBA9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4532,7 +4532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>88</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>91</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>65</v>
@@ -5705,16 +5705,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Done (Needs Review)"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Done (Needs Testing)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6285,18 +6285,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:A23 A2:A3 A6:A7 A9:A17">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F23">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Working On"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Unfixed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6319,7 +6319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A6BC1-ED0D-41E7-903B-B5F7393F73BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6882,28 +6882,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G7">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"More Data Needed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Acceptable"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Unacceptable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7083,18 +7083,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"More Data Needed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Acceptable"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Unacceptable"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennys\Documents\Strung Along\strung-along\Admin Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CA9DF8-ECDF-4324-BE7E-642895EA6A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE29AF2-002E-4BA4-89B7-FA8775110E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,7 +3318,7 @@
         <v>92</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>65</v>

--- a/Admin Files/The Prod Doc.xlsx
+++ b/Admin Files/The Prod Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Tim\Desktop\Git\strung-along6\Admin Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE29AF2-002E-4BA4-89B7-FA8775110E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F37A2B3-A9D3-4AF2-9260-681834F0FB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbook